--- a/建模版本記錄.xlsx
+++ b/建模版本記錄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="建模版本記錄" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="297">
   <si>
     <t>資料更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1154,10 +1154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SMOTE演算法，成功類別過採樣6倍，失敗類別降採樣至過採樣數量的1.8倍(成功占比21%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MICE演算法，隨機森林，遞迴5次
 ，訓練測試獨立做</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,6 +1161,112 @@
   <si>
     <t>MICE演算法，隨機森林，遞迴5次
 ，訓練測試一起做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0312v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.用隨機森林作變數篩選，挑選前20重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.用隨機森林作變數篩選，挑選前20重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣6倍，失敗類別降採樣至過採樣數量的1.8倍(成功占比40%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0312v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣6倍，失敗類別降採樣至過採樣數量的4.5倍(成功占比20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08至今曾接觸(所有跨售商品)
+該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure，
+排除全部小結記錄皆為待確定且最新一次至今不到60天者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0312v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣六倍，失敗類別降採樣至過採樣數量的4.5倍(成功占比20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣六倍，失敗類別降採樣至過採樣數量的1.75倍(成功占比40%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若要用演算法來作變數篩選，要先填補遺漏值，若不用演算法，則不用先填補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svmRadial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,7 +1440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1398,6 +1500,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1702,13 +1805,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1798,7 +1901,7 @@
         <v>185</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>242</v>
@@ -1851,7 +1954,7 @@
         <v>185</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>242</v>
@@ -2393,7 +2496,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" ht="330">
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A17" s="2" t="s">
         <v>255</v>
       </c>
@@ -2445,8 +2548,11 @@
       <c r="Q17" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" ht="297">
+      <c r="R17" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="297">
       <c r="A18" s="2" t="s">
         <v>257</v>
       </c>
@@ -2499,7 +2605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" ht="313.5">
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="313.5">
       <c r="A19" s="2" t="s">
         <v>261</v>
       </c>
@@ -2552,7 +2658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" ht="297">
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="297">
       <c r="A20" s="2" t="s">
         <v>260</v>
       </c>
@@ -2605,7 +2711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" ht="297">
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="297">
       <c r="A21" s="2" t="s">
         <v>265</v>
       </c>
@@ -2658,7 +2764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" ht="297">
+    <row r="22" spans="1:18" s="2" customFormat="1" ht="297">
       <c r="A22" s="2" t="s">
         <v>263</v>
       </c>
@@ -2711,7 +2817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" ht="136.5" customHeight="1">
+    <row r="23" spans="1:18" s="2" customFormat="1" ht="136.5" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>267</v>
       </c>
@@ -2764,7 +2870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" ht="346.5">
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="346.5">
       <c r="A24" s="2" t="s">
         <v>268</v>
       </c>
@@ -2817,14 +2923,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" ht="313.5">
+    <row r="25" spans="1:18" s="2" customFormat="1" ht="313.5">
       <c r="A25" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B25" s="26">
         <v>5.3287185063376298E-2</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="14" t="s">
         <v>273</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2833,8 +2939,8 @@
       <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>270</v>
+      <c r="F25" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>259</v>
@@ -2870,7 +2976,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" ht="313.5">
+    <row r="26" spans="1:18" s="2" customFormat="1" ht="196.5" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="26">
+        <v>5.9339466462468002E-2</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>273</v>
       </c>
@@ -2880,14 +2992,14 @@
       <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>270</v>
+      <c r="F26" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>277</v>
+      <c r="H26" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>237</v>
@@ -2917,12 +3029,220 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="2" customFormat="1"/>
-    <row r="28" spans="1:17" s="2" customFormat="1"/>
-    <row r="29" spans="1:17" s="2" customFormat="1"/>
-    <row r="30" spans="1:17" s="2" customFormat="1"/>
-    <row r="31" spans="1:17" s="2" customFormat="1"/>
-    <row r="32" spans="1:17" s="2" customFormat="1"/>
+    <row r="27" spans="1:18" s="2" customFormat="1" ht="313.5">
+      <c r="A27" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" s="26">
+        <v>6.2217676187065599E-2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P27" s="3">
+        <v>43536</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="313.5">
+      <c r="A28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0.111581257028376</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P28" s="3">
+        <v>43536</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="2" customFormat="1" ht="205.5" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="26">
+        <v>0.11621265861266</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P29" s="3">
+        <v>43536</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="2" customFormat="1" ht="313.5">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0.11168548851933099</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P30" s="3">
+        <v>43536</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="2" customFormat="1"/>
+    <row r="32" spans="1:18" s="2" customFormat="1"/>
     <row r="33" s="2" customFormat="1"/>
     <row r="34" s="2" customFormat="1"/>
     <row r="35" s="2" customFormat="1"/>
@@ -2935,11 +3255,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186:XFD186"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3892,7 +4212,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>214</v>
       </c>
@@ -3933,7 +4253,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>214</v>
       </c>
@@ -3974,7 +4294,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>214</v>
       </c>
@@ -4015,7 +4335,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>214</v>
       </c>
@@ -4056,7 +4376,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>214</v>
       </c>
@@ -4097,7 +4417,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>214</v>
       </c>
@@ -4138,8 +4458,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1"/>
-    <row r="35" spans="1:13" s="24" customFormat="1" hidden="1">
+    <row r="35" spans="1:13" s="24" customFormat="1">
       <c r="A35" s="18" t="s">
         <v>226</v>
       </c>
@@ -4180,7 +4499,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="15" customFormat="1" hidden="1">
+    <row r="36" spans="1:13" s="15" customFormat="1">
       <c r="A36" s="14" t="s">
         <v>226</v>
       </c>
@@ -4221,7 +4540,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>226</v>
       </c>
@@ -4262,7 +4581,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>226</v>
       </c>
@@ -4303,7 +4622,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>226</v>
       </c>
@@ -4344,7 +4663,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>226</v>
       </c>
@@ -4385,7 +4704,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>226</v>
       </c>
@@ -4426,9 +4745,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1"/>
-    <row r="43" spans="1:13" hidden="1"/>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13">
       <c r="A44" s="18" t="s">
         <v>228</v>
       </c>
@@ -4469,7 +4786,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13">
       <c r="A45" s="18" t="s">
         <v>228</v>
       </c>
@@ -4510,7 +4827,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="15" customFormat="1" hidden="1">
+    <row r="46" spans="1:13" s="15" customFormat="1">
       <c r="A46" s="20" t="s">
         <v>228</v>
       </c>
@@ -4551,7 +4868,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13">
       <c r="A47" s="19" t="s">
         <v>228</v>
       </c>
@@ -4592,7 +4909,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13">
       <c r="A48" s="19" t="s">
         <v>228</v>
       </c>
@@ -4633,7 +4950,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13">
       <c r="A49" s="19" t="s">
         <v>228</v>
       </c>
@@ -4674,7 +4991,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13">
       <c r="A50" s="19" t="s">
         <v>228</v>
       </c>
@@ -4715,9 +5032,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1"/>
-    <row r="52" spans="1:13" hidden="1"/>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13">
       <c r="A53" s="19" t="s">
         <v>236</v>
       </c>
@@ -4758,7 +5073,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13">
       <c r="A54" s="19" t="s">
         <v>236</v>
       </c>
@@ -4799,7 +5114,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13">
       <c r="A55" s="19" t="s">
         <v>236</v>
       </c>
@@ -4840,7 +5155,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13">
       <c r="A56" s="19" t="s">
         <v>236</v>
       </c>
@@ -4881,7 +5196,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13">
       <c r="A57" s="19" t="s">
         <v>236</v>
       </c>
@@ -4922,7 +5237,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13">
       <c r="A58" s="19" t="s">
         <v>236</v>
       </c>
@@ -4963,7 +5278,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:13">
       <c r="A59" s="19" t="s">
         <v>236</v>
       </c>
@@ -5004,9 +5319,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1"/>
-    <row r="61" spans="1:13" hidden="1"/>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:13">
       <c r="A62" s="20" t="s">
         <v>238</v>
       </c>
@@ -5047,7 +5360,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13">
       <c r="A63" s="19" t="s">
         <v>238</v>
       </c>
@@ -5088,7 +5401,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13">
       <c r="A64" s="19" t="s">
         <v>238</v>
       </c>
@@ -5129,7 +5442,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:13">
       <c r="A65" s="19" t="s">
         <v>238</v>
       </c>
@@ -5170,7 +5483,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:13">
       <c r="A66" s="19" t="s">
         <v>238</v>
       </c>
@@ -5211,7 +5524,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13">
       <c r="A67" s="19" t="s">
         <v>238</v>
       </c>
@@ -5252,7 +5565,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:13">
       <c r="A68" s="19" t="s">
         <v>238</v>
       </c>
@@ -5293,9 +5606,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1"/>
-    <row r="70" spans="1:13" hidden="1"/>
-    <row r="71" spans="1:13" s="15" customFormat="1" hidden="1">
+    <row r="71" spans="1:13" s="15" customFormat="1">
       <c r="A71" s="20" t="s">
         <v>240</v>
       </c>
@@ -5336,7 +5647,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13">
       <c r="A72" s="19" t="s">
         <v>240</v>
       </c>
@@ -5377,7 +5688,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13">
       <c r="A73" s="19" t="s">
         <v>240</v>
       </c>
@@ -5418,7 +5729,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1">
+    <row r="74" spans="1:13">
       <c r="A74" s="19" t="s">
         <v>240</v>
       </c>
@@ -5459,7 +5770,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13">
       <c r="A75" s="19" t="s">
         <v>240</v>
       </c>
@@ -5500,7 +5811,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13">
       <c r="A76" s="19" t="s">
         <v>240</v>
       </c>
@@ -5541,7 +5852,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13">
       <c r="A77" s="19" t="s">
         <v>240</v>
       </c>
@@ -5582,9 +5893,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1"/>
-    <row r="79" spans="1:13" hidden="1"/>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13">
       <c r="A80" s="19" t="s">
         <v>247</v>
       </c>
@@ -5625,7 +5934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="15" customFormat="1" hidden="1">
+    <row r="81" spans="1:13" s="15" customFormat="1">
       <c r="A81" s="20" t="s">
         <v>247</v>
       </c>
@@ -5666,7 +5975,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:13">
       <c r="A82" s="19" t="s">
         <v>247</v>
       </c>
@@ -5707,7 +6016,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:13">
       <c r="A83" s="19" t="s">
         <v>247</v>
       </c>
@@ -5748,7 +6057,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13">
       <c r="A84" s="19" t="s">
         <v>247</v>
       </c>
@@ -5789,7 +6098,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13">
       <c r="A85" s="19" t="s">
         <v>247</v>
       </c>
@@ -5830,7 +6139,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:13">
       <c r="A86" s="19" t="s">
         <v>247</v>
       </c>
@@ -5871,9 +6180,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1"/>
-    <row r="88" spans="1:13" hidden="1"/>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89" s="19" t="s">
         <v>248</v>
       </c>
@@ -5914,7 +6221,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13">
       <c r="A90" s="19" t="s">
         <v>248</v>
       </c>
@@ -5955,7 +6262,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13">
       <c r="A91" s="19" t="s">
         <v>248</v>
       </c>
@@ -5996,7 +6303,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13">
       <c r="A92" s="19" t="s">
         <v>248</v>
       </c>
@@ -6037,7 +6344,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
+    <row r="93" spans="1:13">
       <c r="A93" s="19" t="s">
         <v>248</v>
       </c>
@@ -6078,7 +6385,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="15" customFormat="1" hidden="1">
+    <row r="94" spans="1:13" s="15" customFormat="1">
       <c r="A94" s="20" t="s">
         <v>248</v>
       </c>
@@ -6119,7 +6426,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13">
       <c r="A95" s="19" t="s">
         <v>248</v>
       </c>
@@ -6160,8 +6467,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1"/>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:13">
       <c r="A97" s="19" t="s">
         <v>253</v>
       </c>
@@ -6202,7 +6508,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1">
+    <row r="98" spans="1:13">
       <c r="A98" s="19" t="s">
         <v>253</v>
       </c>
@@ -6243,7 +6549,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1">
+    <row r="99" spans="1:13">
       <c r="A99" s="19" t="s">
         <v>253</v>
       </c>
@@ -6284,7 +6590,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1">
+    <row r="100" spans="1:13">
       <c r="A100" s="19" t="s">
         <v>253</v>
       </c>
@@ -6325,7 +6631,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:13">
       <c r="A101" s="19" t="s">
         <v>253</v>
       </c>
@@ -6360,7 +6666,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1">
+    <row r="102" spans="1:13">
       <c r="A102" s="19" t="s">
         <v>253</v>
       </c>
@@ -6395,7 +6701,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1">
+    <row r="103" spans="1:13">
       <c r="A103" s="19" t="s">
         <v>253</v>
       </c>
@@ -6430,9 +6736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1"/>
-    <row r="105" spans="1:13" hidden="1"/>
-    <row r="106" spans="1:13" hidden="1">
+    <row r="106" spans="1:13">
       <c r="A106" s="19" t="s">
         <v>254</v>
       </c>
@@ -6473,7 +6777,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="15" customFormat="1" hidden="1">
+    <row r="107" spans="1:13" s="15" customFormat="1">
       <c r="A107" s="20" t="s">
         <v>254</v>
       </c>
@@ -6514,7 +6818,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1">
+    <row r="108" spans="1:13">
       <c r="A108" s="19" t="s">
         <v>254</v>
       </c>
@@ -6555,7 +6859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1">
+    <row r="109" spans="1:13">
       <c r="A109" s="19" t="s">
         <v>254</v>
       </c>
@@ -6596,7 +6900,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1">
+    <row r="110" spans="1:13">
       <c r="A110" s="19" t="s">
         <v>254</v>
       </c>
@@ -6637,7 +6941,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1">
+    <row r="111" spans="1:13">
       <c r="A111" s="19" t="s">
         <v>254</v>
       </c>
@@ -6678,7 +6982,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1">
+    <row r="112" spans="1:13">
       <c r="A112" s="19" t="s">
         <v>254</v>
       </c>
@@ -6719,9 +7023,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1"/>
-    <row r="114" spans="1:13" hidden="1"/>
-    <row r="115" spans="1:13" s="15" customFormat="1" hidden="1">
+    <row r="115" spans="1:13" s="15" customFormat="1">
       <c r="A115" s="20" t="s">
         <v>257</v>
       </c>
@@ -6762,7 +7064,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1">
+    <row r="116" spans="1:13">
       <c r="A116" s="19" t="s">
         <v>257</v>
       </c>
@@ -6803,7 +7105,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1">
+    <row r="117" spans="1:13">
       <c r="A117" s="19" t="s">
         <v>257</v>
       </c>
@@ -6844,7 +7146,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118" s="19" t="s">
         <v>257</v>
       </c>
@@ -6885,7 +7187,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:13">
       <c r="A119" s="19" t="s">
         <v>257</v>
       </c>
@@ -6926,7 +7228,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:13">
       <c r="A120" s="19" t="s">
         <v>257</v>
       </c>
@@ -6967,7 +7269,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13">
       <c r="A121" s="19" t="s">
         <v>257</v>
       </c>
@@ -7008,14 +7310,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1"/>
-    <row r="123" spans="1:13" hidden="1"/>
     <row r="124" spans="1:13" s="17" customFormat="1">
       <c r="A124" s="22" t="s">
         <v>261</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="C124" s="17">
         <v>0.71146739033404105</v>
@@ -9303,6 +9603,1148 @@
         <v>8.72434763753243E-3</v>
       </c>
       <c r="M192" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" s="26" customFormat="1">
+      <c r="A196" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C196" s="26">
+        <v>0.92226469570198699</v>
+      </c>
+      <c r="D196" s="26">
+        <v>0.17220702714075301</v>
+      </c>
+      <c r="E196" s="26">
+        <v>3.8012990107783702E-2</v>
+      </c>
+      <c r="F196" s="26">
+        <v>6.2217676187065599E-2</v>
+      </c>
+      <c r="G196" s="26">
+        <v>0.63998857016330801</v>
+      </c>
+      <c r="H196" s="26">
+        <v>5.8323501803806497E-3</v>
+      </c>
+      <c r="I196" s="26">
+        <v>4.6985930814973598E-2</v>
+      </c>
+      <c r="J196" s="26">
+        <v>1.0162926770137999E-2</v>
+      </c>
+      <c r="K196" s="26">
+        <v>1.6500524325716401E-2</v>
+      </c>
+      <c r="L196" s="26">
+        <v>3.6536150732201303E-2</v>
+      </c>
+      <c r="M196" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" t="s">
+        <v>288</v>
+      </c>
+      <c r="B197" t="s">
+        <v>207</v>
+      </c>
+      <c r="C197">
+        <v>0.95901291727067295</v>
+      </c>
+      <c r="D197">
+        <v>9.5124132127077599E-2</v>
+      </c>
+      <c r="E197">
+        <v>4.8753556370948602E-2</v>
+      </c>
+      <c r="F197">
+        <v>6.21011442410268E-2</v>
+      </c>
+      <c r="G197">
+        <v>0.62810028902441595</v>
+      </c>
+      <c r="H197">
+        <v>1.2480635533576701E-2</v>
+      </c>
+      <c r="I197">
+        <v>5.60892468168874E-2</v>
+      </c>
+      <c r="J197">
+        <v>1.24115584532351E-2</v>
+      </c>
+      <c r="K197">
+        <v>1.90227830869114E-2</v>
+      </c>
+      <c r="L197">
+        <v>2.9285003169362701E-2</v>
+      </c>
+      <c r="M197" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" t="s">
+        <v>288</v>
+      </c>
+      <c r="B198" t="s">
+        <v>205</v>
+      </c>
+      <c r="C198">
+        <v>0.90385216206117103</v>
+      </c>
+      <c r="D198">
+        <v>0.14653902798232701</v>
+      </c>
+      <c r="E198">
+        <v>2.5576129231645199E-2</v>
+      </c>
+      <c r="F198">
+        <v>4.3545699250134198E-2</v>
+      </c>
+      <c r="G198">
+        <v>0.593673760644436</v>
+      </c>
+      <c r="H198">
+        <v>2.80929048925109E-3</v>
+      </c>
+      <c r="I198">
+        <v>2.5832738570295301E-2</v>
+      </c>
+      <c r="J198">
+        <v>3.7306298041859501E-3</v>
+      </c>
+      <c r="K198">
+        <v>6.5512692247902404E-3</v>
+      </c>
+      <c r="L198">
+        <v>1.51147858678601E-2</v>
+      </c>
+      <c r="M198" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" t="s">
+        <v>288</v>
+      </c>
+      <c r="B199" t="s">
+        <v>209</v>
+      </c>
+      <c r="C199">
+        <v>0.96536975762542498</v>
+      </c>
+      <c r="D199">
+        <v>4.1184515043130698E-2</v>
+      </c>
+      <c r="E199">
+        <v>3.6394992983874198E-2</v>
+      </c>
+      <c r="F199">
+        <v>3.6476001452726198E-2</v>
+      </c>
+      <c r="G199">
+        <v>0.67633091062707895</v>
+      </c>
+      <c r="H199">
+        <v>1.09617661387864E-2</v>
+      </c>
+      <c r="I199">
+        <v>2.9208780070486499E-2</v>
+      </c>
+      <c r="J199">
+        <v>2.72673036478688E-2</v>
+      </c>
+      <c r="K199">
+        <v>2.7692141896015699E-2</v>
+      </c>
+      <c r="L199">
+        <v>2.6673319670048198E-2</v>
+      </c>
+      <c r="M199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" t="s">
+        <v>288</v>
+      </c>
+      <c r="B200" t="s">
+        <v>208</v>
+      </c>
+      <c r="C200">
+        <v>0.31252669007537498</v>
+      </c>
+      <c r="D200">
+        <v>0.77627288028613495</v>
+      </c>
+      <c r="E200">
+        <v>1.68802562021662E-2</v>
+      </c>
+      <c r="F200">
+        <v>3.3024992112319802E-2</v>
+      </c>
+      <c r="G200">
+        <v>0.56804949098204904</v>
+      </c>
+      <c r="H200">
+        <v>0.115945440479512</v>
+      </c>
+      <c r="I200">
+        <v>9.9569434406413401E-2</v>
+      </c>
+      <c r="J200">
+        <v>1.7688505381752301E-3</v>
+      </c>
+      <c r="K200">
+        <v>3.3818938639525301E-3</v>
+      </c>
+      <c r="L200">
+        <v>3.9370852535747403E-2</v>
+      </c>
+      <c r="M200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
+      <c r="A201" t="s">
+        <v>288</v>
+      </c>
+      <c r="B201" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201">
+        <v>0.20524109253404499</v>
+      </c>
+      <c r="D201">
+        <v>0.90211445402903401</v>
+      </c>
+      <c r="E201">
+        <v>1.6735296554351301E-2</v>
+      </c>
+      <c r="F201">
+        <v>3.2860253775613302E-2</v>
+      </c>
+      <c r="G201">
+        <v>0.552768091031133</v>
+      </c>
+      <c r="H201">
+        <v>3.5328760601192499E-2</v>
+      </c>
+      <c r="I201">
+        <v>9.5475724374120399E-2</v>
+      </c>
+      <c r="J201">
+        <v>1.3441950407372201E-3</v>
+      </c>
+      <c r="K201">
+        <v>2.6511263947556801E-3</v>
+      </c>
+      <c r="L201">
+        <v>2.43481226228008E-2</v>
+      </c>
+      <c r="M201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
+      <c r="A202" t="s">
+        <v>288</v>
+      </c>
+      <c r="B202" t="s">
+        <v>201</v>
+      </c>
+      <c r="C202">
+        <v>0.98501541407756499</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F202" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G202">
+        <v>0.64371414726204401</v>
+      </c>
+      <c r="H202">
+        <v>7.5502366993640606E-5</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0.10329997090745099</v>
+      </c>
+      <c r="M202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" s="26" customFormat="1">
+      <c r="A205" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C205" s="15">
+        <v>0.68632038674424001</v>
+      </c>
+      <c r="D205" s="15">
+        <v>0.449952661476962</v>
+      </c>
+      <c r="E205" s="15">
+        <v>6.3777910798750698E-2</v>
+      </c>
+      <c r="F205" s="15">
+        <v>0.111581257028376</v>
+      </c>
+      <c r="G205" s="15">
+        <v>0.58567888833391701</v>
+      </c>
+      <c r="H205" s="15">
+        <v>3.4797845839912897E-2</v>
+      </c>
+      <c r="I205" s="15">
+        <v>5.2290943637960899E-2</v>
+      </c>
+      <c r="J205" s="15">
+        <v>8.3549990803264296E-3</v>
+      </c>
+      <c r="K205" s="15">
+        <v>1.36017130574651E-2</v>
+      </c>
+      <c r="L205" s="15">
+        <v>3.6274701579449502E-2</v>
+      </c>
+      <c r="M205" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
+      <c r="A206" t="s">
+        <v>287</v>
+      </c>
+      <c r="B206" t="s">
+        <v>206</v>
+      </c>
+      <c r="C206">
+        <v>0.75089347708389098</v>
+      </c>
+      <c r="D206">
+        <v>0.32902903429413</v>
+      </c>
+      <c r="E206">
+        <v>6.1132644132760497E-2</v>
+      </c>
+      <c r="F206">
+        <v>0.103089734135224</v>
+      </c>
+      <c r="G206">
+        <v>0.57542873710272302</v>
+      </c>
+      <c r="H206">
+        <v>7.6942092652890802E-3</v>
+      </c>
+      <c r="I206">
+        <v>3.00042942231874E-2</v>
+      </c>
+      <c r="J206">
+        <v>4.7896838184099903E-3</v>
+      </c>
+      <c r="K206">
+        <v>8.1337459703230298E-3</v>
+      </c>
+      <c r="L206">
+        <v>1.44119818568054E-2</v>
+      </c>
+      <c r="M206" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="A207" t="s">
+        <v>287</v>
+      </c>
+      <c r="B207" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207">
+        <v>0.64087772622375505</v>
+      </c>
+      <c r="D207">
+        <v>0.44261519040605901</v>
+      </c>
+      <c r="E207">
+        <v>5.5218011024444701E-2</v>
+      </c>
+      <c r="F207">
+        <v>9.7103252624969605E-2</v>
+      </c>
+      <c r="G207">
+        <v>0.56961301243757101</v>
+      </c>
+      <c r="H207">
+        <v>0.121970821218073</v>
+      </c>
+      <c r="I207">
+        <v>0.14173829339682001</v>
+      </c>
+      <c r="J207">
+        <v>4.4137472799531102E-3</v>
+      </c>
+      <c r="K207">
+        <v>6.8852868257040399E-3</v>
+      </c>
+      <c r="L207">
+        <v>1.27537419778569E-2</v>
+      </c>
+      <c r="M207" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
+      <c r="A208" t="s">
+        <v>287</v>
+      </c>
+      <c r="B208" t="s">
+        <v>205</v>
+      </c>
+      <c r="C208">
+        <v>0.69583758518560801</v>
+      </c>
+      <c r="D208">
+        <v>0.33163265306122403</v>
+      </c>
+      <c r="E208">
+        <v>4.9880975077390102E-2</v>
+      </c>
+      <c r="F208">
+        <v>8.6689301992668305E-2</v>
+      </c>
+      <c r="G208">
+        <v>0.51972438039329705</v>
+      </c>
+      <c r="H208">
+        <v>1.7533713046453701E-2</v>
+      </c>
+      <c r="I208">
+        <v>4.6484531885702299E-2</v>
+      </c>
+      <c r="J208">
+        <v>6.46189160417927E-3</v>
+      </c>
+      <c r="K208">
+        <v>1.12392434434652E-2</v>
+      </c>
+      <c r="L208">
+        <v>1.6367960823996601E-2</v>
+      </c>
+      <c r="M208" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
+      <c r="A209" t="s">
+        <v>287</v>
+      </c>
+      <c r="B209" t="s">
+        <v>208</v>
+      </c>
+      <c r="C209">
+        <v>0.128799334817885</v>
+      </c>
+      <c r="D209">
+        <v>0.94348306332842402</v>
+      </c>
+      <c r="E209">
+        <v>4.5239062830324202E-2</v>
+      </c>
+      <c r="F209">
+        <v>8.6318427342152199E-2</v>
+      </c>
+      <c r="G209">
+        <v>0.53523815090628002</v>
+      </c>
+      <c r="H209">
+        <v>6.9239379015946803E-2</v>
+      </c>
+      <c r="I209">
+        <v>4.5637061428814497E-2</v>
+      </c>
+      <c r="J209">
+        <v>1.67432791163178E-3</v>
+      </c>
+      <c r="K209">
+        <v>2.8626277470530999E-3</v>
+      </c>
+      <c r="L209">
+        <v>1.7829077721073599E-2</v>
+      </c>
+      <c r="M209" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
+      <c r="A210" t="s">
+        <v>287</v>
+      </c>
+      <c r="B210" t="s">
+        <v>209</v>
+      </c>
+      <c r="C210">
+        <v>0.72649831624618399</v>
+      </c>
+      <c r="D210">
+        <v>0.31080370292446902</v>
+      </c>
+      <c r="E210">
+        <v>5.0337355895276097E-2</v>
+      </c>
+      <c r="F210">
+        <v>8.4592103974857003E-2</v>
+      </c>
+      <c r="G210">
+        <v>0.55284649758394599</v>
+      </c>
+      <c r="H210">
+        <v>9.8160714630283905E-2</v>
+      </c>
+      <c r="I210">
+        <v>0.153017356112471</v>
+      </c>
+      <c r="J210">
+        <v>9.6544667520947706E-3</v>
+      </c>
+      <c r="K210">
+        <v>2.31118048889992E-2</v>
+      </c>
+      <c r="L210">
+        <v>3.2836669601201102E-2</v>
+      </c>
+      <c r="M210" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="A211" t="s">
+        <v>287</v>
+      </c>
+      <c r="B211" t="s">
+        <v>203</v>
+      </c>
+      <c r="C211">
+        <v>0.117622775223115</v>
+      </c>
+      <c r="D211">
+        <v>0.92281190826846204</v>
+      </c>
+      <c r="E211">
+        <v>4.3707849147550201E-2</v>
+      </c>
+      <c r="F211">
+        <v>8.3454372033681903E-2</v>
+      </c>
+      <c r="G211">
+        <v>0.51738164425827504</v>
+      </c>
+      <c r="H211">
+        <v>4.6346416326411899E-2</v>
+      </c>
+      <c r="I211">
+        <v>4.9533571907284399E-2</v>
+      </c>
+      <c r="J211">
+        <v>5.5013410548677196E-4</v>
+      </c>
+      <c r="K211">
+        <v>1.03784544442542E-3</v>
+      </c>
+      <c r="L211">
+        <v>1.3454278499942299E-2</v>
+      </c>
+      <c r="M211" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" s="26" customFormat="1">
+      <c r="A214" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B214" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C214" s="26">
+        <v>0.89156391257408096</v>
+      </c>
+      <c r="D214" s="26">
+        <v>0.16447506837786699</v>
+      </c>
+      <c r="E214" s="26">
+        <v>9.0083311196578197E-2</v>
+      </c>
+      <c r="F214" s="26">
+        <v>0.11621265861266</v>
+      </c>
+      <c r="G214" s="26">
+        <v>0.57799994379585695</v>
+      </c>
+      <c r="H214" s="26">
+        <v>6.2319214313968901E-3</v>
+      </c>
+      <c r="I214" s="26">
+        <v>2.99327951920208E-2</v>
+      </c>
+      <c r="J214" s="26">
+        <v>1.0746022997808399E-2</v>
+      </c>
+      <c r="K214" s="26">
+        <v>1.5913735819115801E-2</v>
+      </c>
+      <c r="L214" s="26">
+        <v>2.3102933414557901E-2</v>
+      </c>
+      <c r="M214" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="A215" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B215" t="s">
+        <v>201</v>
+      </c>
+      <c r="C215">
+        <v>0.94751375819853301</v>
+      </c>
+      <c r="D215">
+        <v>4.1237113402061903E-2</v>
+      </c>
+      <c r="E215">
+        <v>0.14230892228973499</v>
+      </c>
+      <c r="F215">
+        <v>0.104358974358974</v>
+      </c>
+      <c r="G215">
+        <v>0.58626448780884999</v>
+      </c>
+      <c r="H215">
+        <v>1.02294657942936E-2</v>
+      </c>
+      <c r="I215">
+        <v>4.8354801647664203E-2</v>
+      </c>
+      <c r="J215">
+        <v>1.44722846165459E-2</v>
+      </c>
+      <c r="K215">
+        <v>1.5592611072318701E-2</v>
+      </c>
+      <c r="L215">
+        <v>2.37400211320077E-2</v>
+      </c>
+      <c r="M215" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
+      <c r="A216" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B216" t="s">
+        <v>205</v>
+      </c>
+      <c r="C216">
+        <v>0.74395650144404402</v>
+      </c>
+      <c r="D216">
+        <v>0.29044813801809399</v>
+      </c>
+      <c r="E216">
+        <v>5.3107764264606699E-2</v>
+      </c>
+      <c r="F216">
+        <v>8.9791001166217396E-2</v>
+      </c>
+      <c r="G216">
+        <v>0.52752211077889799</v>
+      </c>
+      <c r="H216">
+        <v>4.6743630541392798E-3</v>
+      </c>
+      <c r="I216">
+        <v>5.5116521704633298E-2</v>
+      </c>
+      <c r="J216">
+        <v>9.5030952594308497E-3</v>
+      </c>
+      <c r="K216">
+        <v>1.6198516389798301E-2</v>
+      </c>
+      <c r="L216">
+        <v>2.74483437069615E-2</v>
+      </c>
+      <c r="M216" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
+      <c r="A217" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B217" t="s">
+        <v>203</v>
+      </c>
+      <c r="C217">
+        <v>0.33833814705933801</v>
+      </c>
+      <c r="D217">
+        <v>0.69850620660635399</v>
+      </c>
+      <c r="E217">
+        <v>4.4186798816626398E-2</v>
+      </c>
+      <c r="F217">
+        <v>8.1535433456329007E-2</v>
+      </c>
+      <c r="G217">
+        <v>0.53856090019008096</v>
+      </c>
+      <c r="H217">
+        <v>0.330689733302022</v>
+      </c>
+      <c r="I217">
+        <v>0.374358962836288</v>
+      </c>
+      <c r="J217">
+        <v>4.0536534217251096E-3</v>
+      </c>
+      <c r="K217">
+        <v>1.0914681083176401E-2</v>
+      </c>
+      <c r="L217">
+        <v>1.9779522034486598E-2</v>
+      </c>
+      <c r="M217" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
+      <c r="A218" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B218" t="s">
+        <v>208</v>
+      </c>
+      <c r="C218">
+        <v>0.92871369885837396</v>
+      </c>
+      <c r="D218">
+        <v>6.1697875026299198E-2</v>
+      </c>
+      <c r="E218">
+        <v>7.9366839122936697E-2</v>
+      </c>
+      <c r="F218">
+        <v>6.7309927923738702E-2</v>
+      </c>
+      <c r="G218">
+        <v>0.55632666835661704</v>
+      </c>
+      <c r="H218">
+        <v>1.1698970674094001E-2</v>
+      </c>
+      <c r="I218">
+        <v>3.0351334480566601E-2</v>
+      </c>
+      <c r="J218">
+        <v>2.4681838257990699E-2</v>
+      </c>
+      <c r="K218">
+        <v>2.6048258494971301E-2</v>
+      </c>
+      <c r="L218">
+        <v>1.6640510561124599E-2</v>
+      </c>
+      <c r="M218" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
+      <c r="A219" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B219" t="s">
+        <v>207</v>
+      </c>
+      <c r="C219">
+        <v>0.94180956221446499</v>
+      </c>
+      <c r="D219">
+        <v>3.8501998737639397E-2</v>
+      </c>
+      <c r="E219">
+        <v>0.10716932523997701</v>
+      </c>
+      <c r="F219">
+        <v>5.2593396691033398E-2</v>
+      </c>
+      <c r="G219">
+        <v>0.57013652809498205</v>
+      </c>
+      <c r="H219">
+        <v>1.18199715993638E-2</v>
+      </c>
+      <c r="I219">
+        <v>2.1024610873729199E-2</v>
+      </c>
+      <c r="J219">
+        <v>3.8858007201518503E-2</v>
+      </c>
+      <c r="K219">
+        <v>2.3655982271430401E-2</v>
+      </c>
+      <c r="L219">
+        <v>2.93964662318736E-2</v>
+      </c>
+      <c r="M219" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
+      <c r="A220" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B220" t="s">
+        <v>209</v>
+      </c>
+      <c r="C220">
+        <v>0.94125253049468605</v>
+      </c>
+      <c r="D220">
+        <v>3.3268462023984903E-2</v>
+      </c>
+      <c r="E220">
+        <v>0.113137579266612</v>
+      </c>
+      <c r="F220">
+        <v>3.8361674474528699E-2</v>
+      </c>
+      <c r="G220">
+        <v>0.57342603331376496</v>
+      </c>
+      <c r="H220">
+        <v>2.0155446688916299E-2</v>
+      </c>
+      <c r="I220">
+        <v>3.9346795287201398E-2</v>
+      </c>
+      <c r="J220">
+        <v>6.1168407727439998E-2</v>
+      </c>
+      <c r="K220">
+        <v>3.0766597003606198E-2</v>
+      </c>
+      <c r="L220">
+        <v>1.91199759442915E-2</v>
+      </c>
+      <c r="M220" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" s="15" customFormat="1">
+      <c r="A223" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C223" s="15">
+        <v>0.74776449203816897</v>
+      </c>
+      <c r="D223" s="15">
+        <v>0.36505891016200298</v>
+      </c>
+      <c r="E223" s="15">
+        <v>6.5947978677234606E-2</v>
+      </c>
+      <c r="F223" s="15">
+        <v>0.11168548851933099</v>
+      </c>
+      <c r="G223" s="15">
+        <v>0.58647011841624697</v>
+      </c>
+      <c r="H223" s="15">
+        <v>1.0098788589530699E-2</v>
+      </c>
+      <c r="I223" s="15">
+        <v>4.3516393282348201E-2</v>
+      </c>
+      <c r="J223" s="15">
+        <v>5.25619673824198E-3</v>
+      </c>
+      <c r="K223" s="15">
+        <v>9.5349120419693806E-3</v>
+      </c>
+      <c r="L223" s="15">
+        <v>1.8268080017872501E-2</v>
+      </c>
+      <c r="M223" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B224" t="s">
+        <v>209</v>
+      </c>
+      <c r="C224">
+        <v>0.65308704144455498</v>
+      </c>
+      <c r="D224">
+        <v>0.44990006311803099</v>
+      </c>
+      <c r="E224">
+        <v>5.7375461703410402E-2</v>
+      </c>
+      <c r="F224">
+        <v>0.101711869415488</v>
+      </c>
+      <c r="G224">
+        <v>0.56636039151044004</v>
+      </c>
+      <c r="H224">
+        <v>2.75660749823325E-2</v>
+      </c>
+      <c r="I224">
+        <v>2.3472996198218202E-2</v>
+      </c>
+      <c r="J224">
+        <v>3.9284460915771603E-3</v>
+      </c>
+      <c r="K224">
+        <v>6.1148663406837703E-3</v>
+      </c>
+      <c r="L224">
+        <v>2.8062936955867701E-2</v>
+      </c>
+      <c r="M224" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="A225" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B225" t="s">
+        <v>201</v>
+      </c>
+      <c r="C225">
+        <v>0.73432869214927698</v>
+      </c>
+      <c r="D225">
+        <v>0.32653061224489799</v>
+      </c>
+      <c r="E225">
+        <v>5.6363223714253001E-2</v>
+      </c>
+      <c r="F225">
+        <v>9.9750028610693306E-2</v>
+      </c>
+      <c r="G225">
+        <v>0.56303951301820898</v>
+      </c>
+      <c r="H225">
+        <v>0.149400612847152</v>
+      </c>
+      <c r="I225">
+        <v>0.23643198904240201</v>
+      </c>
+      <c r="J225">
+        <v>1.1627259511986799E-2</v>
+      </c>
+      <c r="K225">
+        <v>2.1072594729822099E-2</v>
+      </c>
+      <c r="L225">
+        <v>4.5118320545015703E-2</v>
+      </c>
+      <c r="M225" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
+      <c r="A226" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B226" t="s">
+        <v>207</v>
+      </c>
+      <c r="C226">
+        <v>0.55860962178692397</v>
+      </c>
+      <c r="D226">
+        <v>0.53808121186618996</v>
+      </c>
+      <c r="E226">
+        <v>5.2143535282509097E-2</v>
+      </c>
+      <c r="F226">
+        <v>9.3500243997756402E-2</v>
+      </c>
+      <c r="G226">
+        <v>0.57959136275358503</v>
+      </c>
+      <c r="H226">
+        <v>0.18202127653726899</v>
+      </c>
+      <c r="I226">
+        <v>0.25631012822284299</v>
+      </c>
+      <c r="J226">
+        <v>2.46858431852295E-3</v>
+      </c>
+      <c r="K226">
+        <v>8.9331176849014107E-3</v>
+      </c>
+      <c r="L226">
+        <v>2.3564997008896301E-2</v>
+      </c>
+      <c r="M226" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B227" t="s">
+        <v>208</v>
+      </c>
+      <c r="C227">
+        <v>0.114577142662297</v>
+      </c>
+      <c r="D227">
+        <v>0.951293919629708</v>
+      </c>
+      <c r="E227">
+        <v>4.4898951372651298E-2</v>
+      </c>
+      <c r="F227">
+        <v>8.5727971741804201E-2</v>
+      </c>
+      <c r="G227">
+        <v>0.53264927838777398</v>
+      </c>
+      <c r="H227">
+        <v>7.6182128194630994E-2</v>
+      </c>
+      <c r="I227">
+        <v>4.67479190345437E-2</v>
+      </c>
+      <c r="J227">
+        <v>1.88760858159914E-3</v>
+      </c>
+      <c r="K227">
+        <v>3.2573063034526499E-3</v>
+      </c>
+      <c r="L227">
+        <v>1.51628849025743E-2</v>
+      </c>
+      <c r="M227" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B228" t="s">
+        <v>205</v>
+      </c>
+      <c r="C228">
+        <v>0.67524631371516897</v>
+      </c>
+      <c r="D228">
+        <v>0.34444035346097202</v>
+      </c>
+      <c r="E228">
+        <v>4.8550385352980903E-2</v>
+      </c>
+      <c r="F228">
+        <v>8.5078070653483703E-2</v>
+      </c>
+      <c r="G228">
+        <v>0.53443974826650997</v>
+      </c>
+      <c r="H228">
+        <v>2.4330715079900801E-2</v>
+      </c>
+      <c r="I228">
+        <v>5.8929718771482703E-2</v>
+      </c>
+      <c r="J228">
+        <v>1.0247297776133001E-2</v>
+      </c>
+      <c r="K228">
+        <v>1.75242336428891E-2</v>
+      </c>
+      <c r="L228">
+        <v>2.8597698734288801E-2</v>
+      </c>
+      <c r="M228" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B229" t="s">
+        <v>203</v>
+      </c>
+      <c r="C229">
+        <v>7.6204443735356606E-2</v>
+      </c>
+      <c r="D229">
+        <v>0.97946034083736599</v>
+      </c>
+      <c r="E229">
+        <v>4.4185447840095003E-2</v>
+      </c>
+      <c r="F229">
+        <v>8.4552157757028304E-2</v>
+      </c>
+      <c r="G229">
+        <v>0.51880655975295198</v>
+      </c>
+      <c r="H229">
+        <v>3.57133696829064E-2</v>
+      </c>
+      <c r="I229">
+        <v>1.87650373964173E-2</v>
+      </c>
+      <c r="J229">
+        <v>9.4379593723023102E-4</v>
+      </c>
+      <c r="K229">
+        <v>1.65979298647141E-3</v>
+      </c>
+      <c r="L229">
+        <v>1.0810139659873701E-2</v>
+      </c>
+      <c r="M229" t="s">
         <v>204</v>
       </c>
     </row>

--- a/建模版本記錄.xlsx
+++ b/建模版本記錄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="建模版本記錄" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="300">
   <si>
     <t>資料更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1267,6 +1267,18 @@
   </si>
   <si>
     <t>svmRadial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0318v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用全部資料，更改cutting point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改60天定義</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1807,11 +1819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3241,11 +3253,71 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="2" customFormat="1"/>
-    <row r="32" spans="1:18" s="2" customFormat="1"/>
-    <row r="33" s="2" customFormat="1"/>
-    <row r="34" s="2" customFormat="1"/>
-    <row r="35" s="2" customFormat="1"/>
+    <row r="31" spans="1:18" s="2" customFormat="1" ht="313.5">
+      <c r="A31" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0.25343975254332501</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P31" s="3">
+        <v>43542</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="2" customFormat="1">
+      <c r="B32" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" s="2" customFormat="1">
+      <c r="B33" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" s="2" customFormat="1"/>
+    <row r="35" spans="2:2" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3255,11 +3327,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:M238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10746,6 +10818,293 @@
       </c>
       <c r="M229" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" s="15" customFormat="1">
+      <c r="A232" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C232" s="15">
+        <v>0.72134146341463401</v>
+      </c>
+      <c r="D232" s="15">
+        <v>0.37259615384615402</v>
+      </c>
+      <c r="E232" s="15">
+        <v>0.19209813962469199</v>
+      </c>
+      <c r="F232" s="15">
+        <v>0.25343975254332501</v>
+      </c>
+      <c r="G232" s="15">
+        <v>0.59512314675547895</v>
+      </c>
+      <c r="H232" s="15">
+        <v>1.4952499315243501E-2</v>
+      </c>
+      <c r="I232" s="15">
+        <v>4.3269230769230803E-2</v>
+      </c>
+      <c r="J232" s="15">
+        <v>2.3799933490484301E-2</v>
+      </c>
+      <c r="K232" s="15">
+        <v>3.0399828603078299E-2</v>
+      </c>
+      <c r="L232" s="15">
+        <v>2.6490957820292399E-2</v>
+      </c>
+      <c r="M232" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B233" t="s">
+        <v>207</v>
+      </c>
+      <c r="C233">
+        <v>0.64237804878048799</v>
+      </c>
+      <c r="D233">
+        <v>0.48317307692307698</v>
+      </c>
+      <c r="E233">
+        <v>0.183286225217901</v>
+      </c>
+      <c r="F233">
+        <v>0.252062472185136</v>
+      </c>
+      <c r="G233">
+        <v>0.60462941824237204</v>
+      </c>
+      <c r="H233">
+        <v>0.15628601111892701</v>
+      </c>
+      <c r="I233">
+        <v>0.238954076736419</v>
+      </c>
+      <c r="J233">
+        <v>3.0595748815142002E-2</v>
+      </c>
+      <c r="K233">
+        <v>3.2541876361122303E-2</v>
+      </c>
+      <c r="L233">
+        <v>4.6736797148492798E-2</v>
+      </c>
+      <c r="M233" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B234" t="s">
+        <v>208</v>
+      </c>
+      <c r="C234">
+        <v>0.36097560975609799</v>
+      </c>
+      <c r="D234">
+        <v>0.77644230769230804</v>
+      </c>
+      <c r="E234">
+        <v>0.144117765411724</v>
+      </c>
+      <c r="F234">
+        <v>0.23758954617015099</v>
+      </c>
+      <c r="G234">
+        <v>0.564118231628706</v>
+      </c>
+      <c r="H234">
+        <v>0.24814001727594501</v>
+      </c>
+      <c r="I234">
+        <v>0.26870082917917798</v>
+      </c>
+      <c r="J234">
+        <v>2.1180337573602399E-2</v>
+      </c>
+      <c r="K234">
+        <v>2.7404818096261802E-2</v>
+      </c>
+      <c r="L234">
+        <v>4.5893435938261E-2</v>
+      </c>
+      <c r="M234" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B235" t="s">
+        <v>203</v>
+      </c>
+      <c r="C235">
+        <v>0.25975609756097601</v>
+      </c>
+      <c r="D235">
+        <v>0.89663461538461497</v>
+      </c>
+      <c r="E235">
+        <v>0.13716319840513</v>
+      </c>
+      <c r="F235">
+        <v>0.236913850414817</v>
+      </c>
+      <c r="G235">
+        <v>0.54049943596905903</v>
+      </c>
+      <c r="H235">
+        <v>0.14908339151102601</v>
+      </c>
+      <c r="I235">
+        <v>0.119935623346588</v>
+      </c>
+      <c r="J235">
+        <v>1.27217698891671E-2</v>
+      </c>
+      <c r="K235">
+        <v>1.4907220230102E-2</v>
+      </c>
+      <c r="L235">
+        <v>4.4884782482928903E-2</v>
+      </c>
+      <c r="M235" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B236" t="s">
+        <v>201</v>
+      </c>
+      <c r="C236">
+        <v>0.64817073170731698</v>
+      </c>
+      <c r="D236">
+        <v>0.418269230769231</v>
+      </c>
+      <c r="E236">
+        <v>0.165558357801213</v>
+      </c>
+      <c r="F236">
+        <v>0.23552977004023401</v>
+      </c>
+      <c r="G236">
+        <v>0.57959047324881796</v>
+      </c>
+      <c r="H236">
+        <v>7.5481795733872106E-2</v>
+      </c>
+      <c r="I236">
+        <v>3.8860114272378697E-2</v>
+      </c>
+      <c r="J236">
+        <v>3.4386174097736297E-2</v>
+      </c>
+      <c r="K236">
+        <v>3.7152066042086498E-2</v>
+      </c>
+      <c r="L236">
+        <v>2.81565690368854E-2</v>
+      </c>
+      <c r="M236" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B237" t="s">
+        <v>205</v>
+      </c>
+      <c r="C237">
+        <v>0.58993902439024404</v>
+      </c>
+      <c r="D237">
+        <v>0.49038461538461497</v>
+      </c>
+      <c r="E237">
+        <v>0.15283375617687101</v>
+      </c>
+      <c r="F237">
+        <v>0.232929132978002</v>
+      </c>
+      <c r="G237">
+        <v>0.54739202836269896</v>
+      </c>
+      <c r="H237">
+        <v>2.19144905008616E-2</v>
+      </c>
+      <c r="I237">
+        <v>2.7196414661021101E-2</v>
+      </c>
+      <c r="J237">
+        <v>9.7093155936997608E-3</v>
+      </c>
+      <c r="K237">
+        <v>1.31527815083956E-2</v>
+      </c>
+      <c r="L237">
+        <v>1.6535915956227502E-2</v>
+      </c>
+      <c r="M237" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B238" t="s">
+        <v>209</v>
+      </c>
+      <c r="C238">
+        <v>0.74024390243902405</v>
+      </c>
+      <c r="D238">
+        <v>0.262019230769231</v>
+      </c>
+      <c r="E238">
+        <v>0.172532636664641</v>
+      </c>
+      <c r="F238">
+        <v>0.18689077815074401</v>
+      </c>
+      <c r="G238">
+        <v>0.58399025032230301</v>
+      </c>
+      <c r="H238">
+        <v>7.8055131855393797E-2</v>
+      </c>
+      <c r="I238">
+        <v>0.165499177673639</v>
+      </c>
+      <c r="J238">
+        <v>3.58760740429966E-2</v>
+      </c>
+      <c r="K238">
+        <v>6.7245624696346207E-2</v>
+      </c>
+      <c r="L238">
+        <v>3.74494781922887E-2</v>
+      </c>
+      <c r="M238" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/建模版本記錄.xlsx
+++ b/建模版本記錄.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="307">
   <si>
     <t>資料更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1274,11 +1274,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用全部資料，更改cutting point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更改60天定義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0321v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改cutting point只會讓敏感度特異度更平衡，但是對精準度精確度F1 AUC都沒用，可能要搭配重抽樣減少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用全部資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0319v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0322v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只測svmRadial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣1倍，失敗類別降採樣至過採樣數量的7倍(盡量不扭曲樣本)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功門檻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1817,13 +1845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K8:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1834,13 +1862,14 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -1871,29 +1900,32 @@
       <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="69.95" customHeight="1">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="69.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>187</v>
       </c>
@@ -1924,29 +1956,32 @@
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>43523</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="102" customHeight="1">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="102" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>188</v>
       </c>
@@ -1977,29 +2012,32 @@
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>43523</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" ht="330">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A4" s="1" t="s">
         <v>215</v>
       </c>
@@ -2030,29 +2068,32 @@
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>43523</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="234" customHeight="1">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="234" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>214</v>
       </c>
@@ -2083,45 +2124,52 @@
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>43523</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="264">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="264">
       <c r="A6" s="2" t="s">
         <v>223</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1">
+      <c r="K6" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>225</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" ht="330">
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A8" s="2" t="s">
         <v>226</v>
       </c>
@@ -2152,29 +2200,32 @@
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>43523</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="330">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A9" s="2" t="s">
         <v>228</v>
       </c>
@@ -2205,37 +2256,43 @@
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>43523</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1">
+    <row r="10" spans="1:18" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="330">
+      <c r="K10" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A11" s="2" t="s">
         <v>236</v>
       </c>
@@ -2266,29 +2323,32 @@
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>43523</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" ht="330">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A12" s="2" t="s">
         <v>238</v>
       </c>
@@ -2319,29 +2379,32 @@
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>43523</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" ht="330">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A13" s="2" t="s">
         <v>240</v>
       </c>
@@ -2372,29 +2435,32 @@
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>43523</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" ht="330">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A14" s="2" t="s">
         <v>247</v>
       </c>
@@ -2425,29 +2491,32 @@
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>43523</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" ht="330">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A15" s="2" t="s">
         <v>248</v>
       </c>
@@ -2478,37 +2547,43 @@
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>43523</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" ht="297">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="297">
       <c r="A16" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" ht="330">
+      <c r="K16" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A17" s="2" t="s">
         <v>255</v>
       </c>
@@ -2539,32 +2614,35 @@
       <c r="J17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43523</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>12</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="297">
+    <row r="18" spans="1:19" s="2" customFormat="1" ht="297">
       <c r="A18" s="2" t="s">
         <v>257</v>
       </c>
@@ -2595,29 +2673,32 @@
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43523</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" ht="313.5">
+    <row r="19" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A19" s="2" t="s">
         <v>261</v>
       </c>
@@ -2648,29 +2729,32 @@
       <c r="J19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Q19" s="3">
         <v>43523</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" ht="297">
+    <row r="20" spans="1:19" s="2" customFormat="1" ht="297">
       <c r="A20" s="2" t="s">
         <v>260</v>
       </c>
@@ -2701,29 +2785,32 @@
       <c r="J20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>43523</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" ht="297">
+    <row r="21" spans="1:19" s="2" customFormat="1" ht="297">
       <c r="A21" s="2" t="s">
         <v>265</v>
       </c>
@@ -2754,29 +2841,32 @@
       <c r="J21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43523</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" ht="297">
+    <row r="22" spans="1:19" s="2" customFormat="1" ht="297">
       <c r="A22" s="2" t="s">
         <v>263</v>
       </c>
@@ -2807,29 +2897,32 @@
       <c r="J22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43523</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" ht="136.5" customHeight="1">
+    <row r="23" spans="1:19" s="2" customFormat="1" ht="136.5" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>267</v>
       </c>
@@ -2860,29 +2953,32 @@
       <c r="J23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43523</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" ht="346.5">
+    <row r="24" spans="1:19" s="2" customFormat="1" ht="346.5">
       <c r="A24" s="2" t="s">
         <v>268</v>
       </c>
@@ -2913,29 +3009,32 @@
       <c r="J24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43523</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" ht="313.5">
+    <row r="25" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A25" s="2" t="s">
         <v>275</v>
       </c>
@@ -2966,29 +3065,32 @@
       <c r="J25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="3">
         <v>43536</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" ht="196.5" customHeight="1">
+    <row r="26" spans="1:19" s="2" customFormat="1" ht="196.5" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>279</v>
       </c>
@@ -3019,29 +3121,32 @@
       <c r="J26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43536</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" ht="313.5">
+    <row r="27" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A27" s="2" t="s">
         <v>283</v>
       </c>
@@ -3072,29 +3177,32 @@
       <c r="J27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43536</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" ht="313.5">
+    <row r="28" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A28" s="2" t="s">
         <v>285</v>
       </c>
@@ -3125,29 +3233,32 @@
       <c r="J28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="3">
         <v>43536</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" ht="205.5" customHeight="1">
+    <row r="29" spans="1:19" s="2" customFormat="1" ht="205.5" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>289</v>
       </c>
@@ -3178,29 +3289,32 @@
       <c r="J29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>43536</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" ht="313.5">
+    <row r="30" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -3231,31 +3345,34 @@
       <c r="J30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P30" s="3">
+      <c r="Q30" s="3">
         <v>43536</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" ht="313.5">
+    <row r="31" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A31" s="2" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="B31" s="15">
         <v>0.25343975254332501</v>
@@ -3284,40 +3401,103 @@
       <c r="J31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P31" s="3">
+      <c r="Q31" s="3">
         <v>43542</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="2" customFormat="1">
+    <row r="32" spans="1:19" s="2" customFormat="1">
       <c r="B32" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="2" customFormat="1">
+      <c r="B33" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="2:2" s="2" customFormat="1">
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="1:18" s="2" customFormat="1">
+      <c r="A34" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" s="2" customFormat="1"/>
-    <row r="35" spans="2:2" s="2" customFormat="1"/>
+      <c r="B34" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="2" customFormat="1" ht="313.5">
+      <c r="A35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0.25343975254332501</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>43546</v>
+      </c>
+      <c r="R35" s="1">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/建模版本記錄.xlsx
+++ b/建模版本記錄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="建模版本記錄" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="310">
   <si>
     <t>資料更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1307,6 +1307,18 @@
   </si>
   <si>
     <t>成功門檻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣3倍，失敗類別降採樣至過採樣數量的3倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0322v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0322v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,7 +1492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1541,6 +1553,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1845,13 +1863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K8:K31"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3449,7 +3467,7 @@
         <v>303</v>
       </c>
       <c r="B35" s="15">
-        <v>0.25343975254332501</v>
+        <v>0.26126129999999997</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -3460,14 +3478,14 @@
       <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>270</v>
+      <c r="F35" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>305</v>
+      <c r="H35" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>237</v>
@@ -3475,7 +3493,9 @@
       <c r="J35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1">
+        <v>0.35</v>
+      </c>
       <c r="L35" s="1" t="s">
         <v>304</v>
       </c>
@@ -3495,6 +3515,62 @@
         <v>43546</v>
       </c>
       <c r="R35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="2" customFormat="1" ht="313.5">
+      <c r="A36" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" s="15">
+        <v>0.26126129999999997</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>43546</v>
+      </c>
+      <c r="R36" s="1">
         <v>12</v>
       </c>
     </row>
@@ -3507,11 +3583,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A242" sqref="A242:XFD247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11285,6 +11361,52 @@
       </c>
       <c r="M238" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" s="24" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A240" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B240" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C240" s="28">
+        <v>0.57540599999999997</v>
+      </c>
+      <c r="D240" s="29">
+        <v>0.60176989999999997</v>
+      </c>
+      <c r="E240" s="28">
+        <v>0.1748072</v>
+      </c>
+      <c r="F240" s="29">
+        <v>0.2709163</v>
+      </c>
+      <c r="G240" s="28">
+        <v>0.61757859999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="24" customFormat="1">
+      <c r="A241" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B241" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C241" s="24">
+        <v>0.80974480000000004</v>
+      </c>
+      <c r="D241" s="24">
+        <v>0.25663720000000001</v>
+      </c>
+      <c r="E241" s="24">
+        <v>0.26605499999999999</v>
+      </c>
+      <c r="F241" s="15">
+        <v>0.26126129999999997</v>
+      </c>
+      <c r="G241" s="15">
+        <v>0.62653449999999999</v>
       </c>
     </row>
   </sheetData>

--- a/建模版本記錄.xlsx
+++ b/建模版本記錄.xlsx
@@ -12,12 +12,15 @@
     <sheet name="基本CRM欄位" sheetId="2" r:id="rId3"/>
     <sheet name="建模欄位" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">建模版本指標記錄!$G$1:$G$243</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="325">
   <si>
     <t>資料更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1310,15 +1313,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SMOTE演算法，成功類別過採樣3倍，失敗類別降採樣至過採樣數量的3倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0322v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0322v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣3倍，失敗類別降採樣至過採樣數量的2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘗試用bagging方法綜合多個模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更想嘗試的是用boosting或stacking綜合多個模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svmRadial+nnet+nb+rf+xgbTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0325v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svmRadial+nnet+nb+rf+xgbTree投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5(0.35更差)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0325v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣3倍，失敗類別降採樣至過採樣數量的2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0326v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking:svmRadial+nnet+nb+glm&gt;svmRadial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0326v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svmRadial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1326,7 +1389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1430,6 +1493,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1492,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1557,6 +1626,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1863,13 +1935,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3485,7 +3557,7 @@
         <v>259</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>237</v>
@@ -3493,7 +3565,7 @@
       <c r="J35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="14">
         <v>0.35</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -3520,7 +3592,7 @@
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="313.5">
       <c r="A36" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="15">
         <v>0.26126129999999997</v>
@@ -3549,7 +3621,7 @@
       <c r="J36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="14">
         <v>0.35</v>
       </c>
       <c r="L36" s="1" t="s">
@@ -3571,6 +3643,240 @@
         <v>43546</v>
       </c>
       <c r="R36" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="B37" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="B38" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="314.25" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" s="30">
+        <v>0.1755486</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>43546</v>
+      </c>
+      <c r="R39" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="314.25" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B40" s="30">
+        <v>0.24187729999999999</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>43546</v>
+      </c>
+      <c r="R40" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="313.5">
+      <c r="A41" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>43546</v>
+      </c>
+      <c r="R41" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="313.5">
+      <c r="A42" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>43546</v>
+      </c>
+      <c r="R42" s="1">
         <v>12</v>
       </c>
     </row>
@@ -3583,16 +3889,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A242" sqref="A242:XFD247"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="9" style="16"/>
     <col min="6" max="6" width="9" style="16"/>
   </cols>
@@ -11388,7 +11695,7 @@
     </row>
     <row r="241" spans="1:7" s="24" customFormat="1">
       <c r="A241" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B241" s="24" t="s">
         <v>296</v>
@@ -11409,7 +11716,77 @@
         <v>0.62653449999999999</v>
       </c>
     </row>
+    <row r="242" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A242" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B242" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C242" s="28">
+        <v>0.69489559999999995</v>
+      </c>
+      <c r="D242" s="29">
+        <v>0.2477876</v>
+      </c>
+      <c r="E242" s="28">
+        <v>0.1359223</v>
+      </c>
+      <c r="F242" s="29">
+        <v>0.1755486</v>
+      </c>
+      <c r="G242" s="28">
+        <v>0.62653449999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A243" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B243" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C243" s="28">
+        <v>0.51276100000000002</v>
+      </c>
+      <c r="D243" s="29">
+        <v>0.59292040000000001</v>
+      </c>
+      <c r="E243" s="28">
+        <v>0.15192739999999999</v>
+      </c>
+      <c r="F243" s="29">
+        <v>0.24187729999999999</v>
+      </c>
+      <c r="G243" s="28">
+        <v>0.62653449999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B246" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C246" s="16">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D246">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="E246">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="F246" s="16">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="G246">
+        <v>0.61450000000000005</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="G1:G243"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/建模版本記錄.xlsx
+++ b/建模版本記錄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="建模版本記錄" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">建模版本指標記錄!$G$1:$G$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">建模版本記錄!$B$1:$B$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="347">
   <si>
     <t>資料更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -934,6 +935,235 @@
   </si>
   <si>
     <t>0308v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在變數篩選前做
+MICE演算法，隨機森林，遞迴5次
+，訓練測試一起做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0309v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0309v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0309v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0309v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0310v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0310v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅含2018/08至今曾接觸住宿券
+該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08至今曾接觸(任一商品)
+該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure，
+排除全部小結記錄皆為待確定且最新一次至今不到60天者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0310v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0312v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0312v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICE演算法，隨機森林，遞迴5次
+，訓練測試獨立做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICE演算法，隨機森林，遞迴5次
+，訓練測試一起做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0312v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣6倍，失敗類別降採樣至過採樣數量的1.8倍(成功占比40%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0312v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣6倍，失敗類別降採樣至過採樣數量的4.5倍(成功占比20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08至今曾接觸(所有跨售商品)
+該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure，
+排除全部小結記錄皆為待確定且最新一次至今不到60天者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0312v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣六倍，失敗類別降採樣至過採樣數量的4.5倍(成功占比20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣六倍，失敗類別降採樣至過採樣數量的1.75倍(成功占比40%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若要用演算法來作變數篩選，要先填補遺漏值，若不用演算法，則不用先填補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svmRadial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0318v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改60天定義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0321v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改cutting point只會讓敏感度特異度更平衡，但是對精準度精確度F1 AUC都沒用，可能要搭配重抽樣減少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用全部資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0319v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0322v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只測svmRadial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣1倍，失敗類別降採樣至過採樣數量的7倍(盡量不扭曲樣本)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功門檻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0322v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0322v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣3倍，失敗類別降採樣至過採樣數量的2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘗試用bagging方法綜合多個模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更想嘗試的是用boosting或stacking綜合多個模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svmRadial+nnet+nb+rf+xgbTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0325v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svmRadial+nnet+nb+rf+xgbTree投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5(0.35更差)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0325v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE演算法，成功類別過採樣3倍，失敗類別降採樣至過採樣數量的2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0326v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking:svmRadial+nnet+nb+glm&gt;svmRadial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -978,22 +1208,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在變數篩選前做
-MICE演算法，隨機森林，遞迴5次
-，訓練測試一起做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0309v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0309v1</t>
+    <t xml:space="preserve">1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
+2.用隨機森林作變數篩選，挑選前20重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
+2.用隨機森林作變數篩選，挑選前15重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
+2.用隨機森林作變數篩選，挑選前25重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
+2.用BORUTA演算法挑選確定重要和不確定者
+3.空值率太高的(約40%為門檻)排除
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
+2.用BORUTA演算法挑選確定重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
+2.PCA挑出變數，篩選解釋變異門檻至75%(PCA於resampling後做，用train data的PCA參數給test)
+3.空值率太高的(約40%為門檻)排除
+</t>
+  </si>
+  <si>
+    <t>0328v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0328v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svmRadial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只測svmRadial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0328v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.數值變數併組</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，也把大於1比例少於5%的變數全刪掉；類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
+2.用隨機森林作變數篩選，挑選前20重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本CRM欄位+
+HAS_ONLINE_ORDER、TICKET_ORDER_BEFORE、BOOK_ORDER_BEFORE、OTHER_ORDER_BEFORE、Latest_Order_From_180801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
+2.用隨機森林作變數篩選，挑選前20重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
++拿掉覺得沒幫助的'industry_category','Positions','Order_State_EMGBW','Order_State_ST_Mg','Order_State_ST_PE_Mg','Order_State_Bw_Mg','Order_State_Bw_PE_Mg','Order_State_EMGST'
+2.用隨機森林作變數篩選，挑選前20重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0328v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0328v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
++拿掉覺得沒幫助的'industry_category','Positions','Order_State_EMGBW','Order_State_ST_Mg','Order_State_ST_PE_Mg','Order_State_Bw_Mg','Order_State_Bw_PE_Mg','Order_State_EMGST'
+2.用隨機森林作變數篩選，挑選前10重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0328v5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0328v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
++拿掉覺得沒幫助的'industry_category','Positions','Order_State_EMGBW','Order_State_ST_Mg','Order_State_ST_PE_Mg','Order_State_Bw_Mg','Order_State_Bw_PE_Mg','Order_State_EMGST'
+2.用隨機森林作變數篩選，挑選前15重要者
+3.空值率太高的(約40%為門檻)排除
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0328v6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.數值變數不併組，但是把大於1比例少於5%的變數全刪掉；類別變數把占</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
++拿掉覺得沒幫助的'industry_category','Positions','Order_State_EMGBW','Order_State_ST_Mg','Order_State_ST_PE_Mg','Order_State_Bw_Mg','Order_State_Bw_PE_Mg','Order_State_EMGST'
 </t>
     </r>
     <r>
@@ -1005,20 +1402,47 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
+      <t>2.不另外再作變數篩選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-2.用隨機森林作變數篩選，挑選前15重要者
 3.空值率太高的(約40%為門檻)排除
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0309v4</t>
+    <t>0329v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅含2018/08至今曾接觸住宿券
+該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本CRM欄位+
+HAS_ONLINE_ORDER、TICKET_ORDER_BEFORE、BOOK_ORDER_BEFORE、OTHER_ORDER_BEFORE、Latest_Order_From_180801+是否有網路帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0329v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本CRM欄位+
+HAS_ONLINE_ORDER、TICKET_ORDER_BEFORE、BOOK_ORDER_BEFORE、OTHER_ORDER_BEFORE、Latest_Order_From_180801+是否有網路帳號+最近一次業務+最近一次通路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
+      <t xml:space="preserve">在變數篩選前做
 </t>
     </r>
     <r>
@@ -1030,150 +1454,7 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-2.用BORUTA演算法挑選確定重要和不確定者
-3.空值率太高的(約40%為門檻)排除
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0309v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.用隨機森林作變數篩選，挑選前25重要者
-3.空值率太高的(約40%為門檻)排除
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0310v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0310v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.PCA挑出變數，篩選解釋變異門檻至75%(PCA於resampling後做，用train data的PCA參數給test)
-3.空值率太高的(約40%為門檻)排除
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.用隨機森林作變數篩選，挑選前20重要者
-3.空值率太高的(約40%為門檻)排除
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組　
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.用BORUTA演算法挑選確定重要者
-3.空值率太高的(約40%為門檻)排除
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅含2018/08至今曾接觸住宿券
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08至今曾接觸(任一商品)
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure，
-排除全部小結記錄皆為待確定且最新一次至今不到60天者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0310v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0312v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0312v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICE演算法，隨機森林，遞迴5次
-，訓練測試獨立做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICE演算法，隨機森林，遞迴5次
-，訓練測試一起做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0312v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
-</t>
+      <t>類別變數空值弄成其他</t>
     </r>
     <r>
       <rPr>
@@ -1184,204 +1465,25 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-2.用隨機森林作變數篩選，挑選前20重要者
-3.空值率太高的(約40%為門檻)排除
-</t>
+MICE演算法，隨機森林，遞迴5次
+，訓練測試一起做</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.數值變數變異性太低的轉成0/1變數、類別變數把占比太少的類別(約以3%為門檻)併組，MAIL_TO的國外雖然意思差很多但仍併組，高相關變數拿掉　
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.用隨機森林作變數篩選，挑選前20重要者
-3.空值率太高的(約40%為門檻)排除
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMOTE演算法，成功類別過採樣6倍，失敗類別降採樣至過採樣數量的1.8倍(成功占比40%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0312v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMOTE演算法，成功類別過採樣6倍，失敗類別降採樣至過採樣數量的4.5倍(成功占比20%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0313v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08至今曾接觸(所有跨售商品)
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure，
-排除全部小結記錄皆為待確定且最新一次至今不到60天者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0313v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0312v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0313v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMOTE演算法，成功類別過採樣六倍，失敗類別降採樣至過採樣數量的4.5倍(成功占比20%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0313v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0313v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMOTE演算法，成功類別過採樣六倍，失敗類別降採樣至過採樣數量的1.75倍(成功占比40%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0313v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若要用演算法來作變數篩選，要先填補遺漏值，若不用演算法，則不用先填補</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>svmRadial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0318v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改60天定義</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0321v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改cutting point只會讓敏感度特異度更平衡，但是對精準度精確度F1 AUC都沒用，可能要搭配重抽樣減少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用全部資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0319v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0322v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只測svmRadial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMOTE演算法，成功類別過採樣1倍，失敗類別降採樣至過採樣數量的7倍(盡量不扭曲樣本)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功門檻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0322v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0322v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMOTE演算法，成功類別過採樣3倍，失敗類別降採樣至過採樣數量的2倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘗試用bagging方法綜合多個模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更想嘗試的是用boosting或stacking綜合多個模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>svmRadial+nnet+nb+rf+xgbTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0325v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>svmRadial+nnet+nb+rf+xgbTree投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5(0.35更差)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0325v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMOTE演算法，成功類別過採樣3倍，失敗類別降採樣至過採樣數量的2倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0326v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stacking:svmRadial+nnet+nb+glm&gt;svmRadial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0326v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>svmRadial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUC</t>
+    <t>0329v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路帳號、業務、通路加入有些許幫助，類別變數弄成其他沒有幫助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究成交任一跨售商品版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究所有變數有沒有錯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,7 +1491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1499,6 +1601,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1561,7 +1669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1630,6 +1738,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1935,13 +2055,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1991,7 +2111,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>13</v>
@@ -2035,7 +2155,7 @@
         <v>185</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>242</v>
@@ -2091,7 +2211,7 @@
         <v>185</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>242</v>
@@ -2729,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" ht="297">
@@ -2749,7 +2869,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>256</v>
@@ -2788,9 +2908,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" ht="313.5">
+    <row r="19" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A19" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="17">
         <v>0.23901317784224799</v>
@@ -2805,10 +2925,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>242</v>
@@ -2844,9 +2964,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" ht="297">
+    <row r="20" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A20" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20" s="15">
         <v>0.20526534832202201</v>
@@ -2861,10 +2981,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>242</v>
@@ -2900,9 +3020,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" ht="297">
+    <row r="21" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A21" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B21" s="15">
         <v>0.219589280832097</v>
@@ -2917,10 +3037,10 @@
         <v>17</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>242</v>
@@ -2956,9 +3076,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" ht="297">
+    <row r="22" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A22" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B22" s="15">
         <v>0.18939648550028801</v>
@@ -2973,10 +3093,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>242</v>
@@ -3014,7 +3134,7 @@
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" ht="136.5" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B23" s="15">
         <v>0.194773520961316</v>
@@ -3029,10 +3149,10 @@
         <v>17</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>242</v>
@@ -3068,15 +3188,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" ht="346.5">
+    <row r="24" spans="1:19" s="2" customFormat="1" ht="363">
       <c r="A24" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B24" s="26">
         <v>0.181349428413286</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -3085,10 +3205,10 @@
         <v>17</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>242</v>
@@ -3124,15 +3244,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" ht="313.5">
+    <row r="25" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A25" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B25" s="26">
         <v>5.3287185063376298E-2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>24</v>
@@ -3141,10 +3261,10 @@
         <v>17</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>242</v>
@@ -3182,13 +3302,13 @@
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" ht="196.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B26" s="26">
         <v>5.9339466462468002E-2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -3197,13 +3317,13 @@
         <v>17</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>237</v>
@@ -3236,15 +3356,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" ht="313.5">
+    <row r="27" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A27" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B27" s="26">
         <v>6.2217676187065599E-2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>24</v>
@@ -3253,13 +3373,13 @@
         <v>17</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>237</v>
@@ -3292,15 +3412,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" ht="313.5">
+    <row r="28" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A28" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B28" s="15">
         <v>0.111581257028376</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>24</v>
@@ -3309,10 +3429,10 @@
         <v>17</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>242</v>
@@ -3350,13 +3470,13 @@
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" ht="205.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B29" s="26">
         <v>0.11621265861266</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>24</v>
@@ -3365,13 +3485,13 @@
         <v>17</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>237</v>
@@ -3404,15 +3524,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" ht="313.5">
+    <row r="30" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A30" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B30" s="15">
         <v>0.11168548851933099</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>24</v>
@@ -3421,13 +3541,13 @@
         <v>17</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>237</v>
@@ -3460,9 +3580,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" ht="313.5">
+    <row r="31" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A31" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B31" s="15">
         <v>0.25343975254332501</v>
@@ -3477,10 +3597,10 @@
         <v>17</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>242</v>
@@ -3518,25 +3638,25 @@
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1">
       <c r="B32" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1">
       <c r="B33" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="2" customFormat="1" ht="313.5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A35" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B35" s="15">
         <v>0.26126129999999997</v>
@@ -3551,13 +3671,13 @@
         <v>17</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>237</v>
@@ -3569,7 +3689,7 @@
         <v>0.35</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>23</v>
@@ -3581,7 +3701,7 @@
         <v>18</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Q35" s="3">
         <v>43546</v>
@@ -3590,9 +3710,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" ht="313.5">
+    <row r="36" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A36" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B36" s="15">
         <v>0.26126129999999997</v>
@@ -3607,13 +3727,13 @@
         <v>17</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>237</v>
@@ -3625,7 +3745,7 @@
         <v>0.35</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>23</v>
@@ -3637,7 +3757,7 @@
         <v>18</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Q36" s="3">
         <v>43546</v>
@@ -3648,17 +3768,17 @@
     </row>
     <row r="37" spans="1:18">
       <c r="B37" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="B38" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="314.25" thickBot="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="330.75" thickBot="1">
       <c r="A39" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B39" s="30">
         <v>0.1755486</v>
@@ -3673,13 +3793,13 @@
         <v>17</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>237</v>
@@ -3688,10 +3808,10 @@
         <v>16</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>23</v>
@@ -3703,7 +3823,7 @@
         <v>18</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="Q39" s="3">
         <v>43546</v>
@@ -3712,9 +3832,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="314.25" thickBot="1">
+    <row r="40" spans="1:18" ht="330.75" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B40" s="30">
         <v>0.24187729999999999</v>
@@ -3729,13 +3849,13 @@
         <v>17</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>237</v>
@@ -3744,10 +3864,10 @@
         <v>16</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>23</v>
@@ -3759,7 +3879,7 @@
         <v>18</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="Q40" s="3">
         <v>43546</v>
@@ -3768,9 +3888,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="313.5">
+    <row r="41" spans="1:18" ht="330">
       <c r="A41" s="24" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B41">
         <v>0.16830000000000001</v>
@@ -3785,13 +3905,13 @@
         <v>17</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>237</v>
@@ -3803,7 +3923,7 @@
         <v>0.5</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>23</v>
@@ -3815,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="Q41" s="3">
         <v>43546</v>
@@ -3824,63 +3944,532 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="313.5">
-      <c r="A42" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="B42">
-        <v>0.16830000000000001</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="330.75" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B43" s="32">
+        <v>0.25270290000000001</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="I42" s="18" t="s">
+      <c r="F43" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K43" s="1">
         <v>0.5</v>
       </c>
-      <c r="L42" s="24" t="s">
+      <c r="L43" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>43542</v>
+      </c>
+      <c r="R43" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="330.75" thickBot="1">
+      <c r="A44" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>43546</v>
-      </c>
-      <c r="R42" s="1">
+      <c r="B44" s="29">
+        <v>0.2401537</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>43542</v>
+      </c>
+      <c r="R44" s="1">
         <v>12</v>
       </c>
     </row>
+    <row r="45" spans="1:18" ht="409.6" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="29">
+        <v>0.2407183</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>43542</v>
+      </c>
+      <c r="R45" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="409.6" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="29">
+        <v>0.21996689999999999</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>43542</v>
+      </c>
+      <c r="R46" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="409.6" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47" s="29">
+        <v>0.25153940000000002</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>43542</v>
+      </c>
+      <c r="R47" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="409.6" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="29">
+        <v>0.21413660000000001</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>43542</v>
+      </c>
+      <c r="R48" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="330.75" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" s="29">
+        <v>0.2252528</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q49" s="33">
+        <v>43551</v>
+      </c>
+      <c r="R49" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="330.75" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" s="29">
+        <v>0.237234</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q50" s="34">
+        <v>43551</v>
+      </c>
+      <c r="R50" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="330.75" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B51" s="29">
+        <v>0.22157669999999999</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q51" s="34">
+        <v>43551</v>
+      </c>
+      <c r="R51" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:B42"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3889,11 +4478,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7947,10 +8536,10 @@
     </row>
     <row r="124" spans="1:13" s="17" customFormat="1">
       <c r="A124" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C124" s="17">
         <v>0.71146739033404105</v>
@@ -7988,7 +8577,7 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B125" t="s">
         <v>201</v>
@@ -8029,7 +8618,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B126" t="s">
         <v>207</v>
@@ -8070,7 +8659,7 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s">
         <v>208</v>
@@ -8111,7 +8700,7 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B128" t="s">
         <v>203</v>
@@ -8152,7 +8741,7 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B129" t="s">
         <v>205</v>
@@ -8193,7 +8782,7 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B130" t="s">
         <v>209</v>
@@ -8234,7 +8823,7 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B133" t="s">
         <v>203</v>
@@ -8275,7 +8864,7 @@
     </row>
     <row r="134" spans="1:13" s="15" customFormat="1">
       <c r="A134" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B134" s="15" t="s">
         <v>206</v>
@@ -8316,7 +8905,7 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B135" t="s">
         <v>208</v>
@@ -8357,7 +8946,7 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B136" t="s">
         <v>201</v>
@@ -8398,7 +8987,7 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B137" t="s">
         <v>205</v>
@@ -8439,7 +9028,7 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B138" t="s">
         <v>207</v>
@@ -8480,7 +9069,7 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B139" t="s">
         <v>209</v>
@@ -8521,7 +9110,7 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B142" t="s">
         <v>207</v>
@@ -8562,7 +9151,7 @@
     </row>
     <row r="143" spans="1:13" s="15" customFormat="1">
       <c r="A143" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B143" s="15" t="s">
         <v>206</v>
@@ -8603,7 +9192,7 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B144" t="s">
         <v>208</v>
@@ -8644,7 +9233,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B145" t="s">
         <v>203</v>
@@ -8685,7 +9274,7 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B146" t="s">
         <v>201</v>
@@ -8726,7 +9315,7 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B147" t="s">
         <v>205</v>
@@ -8767,7 +9356,7 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
         <v>209</v>
@@ -8808,7 +9397,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B150" t="s">
         <v>208</v>
@@ -8849,7 +9438,7 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B151" t="s">
         <v>201</v>
@@ -8890,7 +9479,7 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B152" t="s">
         <v>203</v>
@@ -8931,7 +9520,7 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B153" t="s">
         <v>207</v>
@@ -8972,7 +9561,7 @@
     </row>
     <row r="154" spans="1:13" s="15" customFormat="1">
       <c r="A154" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B154" s="15" t="s">
         <v>205</v>
@@ -9013,7 +9602,7 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B155" t="s">
         <v>206</v>
@@ -9054,7 +9643,7 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B156" t="s">
         <v>209</v>
@@ -9095,7 +9684,7 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B159" t="s">
         <v>203</v>
@@ -9136,7 +9725,7 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B160" t="s">
         <v>208</v>
@@ -9177,7 +9766,7 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>207</v>
@@ -9218,7 +9807,7 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B162" t="s">
         <v>201</v>
@@ -9259,7 +9848,7 @@
     </row>
     <row r="163" spans="1:13" s="15" customFormat="1">
       <c r="A163" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B163" s="15" t="s">
         <v>205</v>
@@ -9300,7 +9889,7 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B164" t="s">
         <v>206</v>
@@ -9341,7 +9930,7 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B165" t="s">
         <v>209</v>
@@ -9382,7 +9971,7 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B168" t="s">
         <v>207</v>
@@ -9423,7 +10012,7 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B169" t="s">
         <v>203</v>
@@ -9464,7 +10053,7 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B170" t="s">
         <v>205</v>
@@ -9505,7 +10094,7 @@
     </row>
     <row r="171" spans="1:13" s="26" customFormat="1">
       <c r="A171" s="26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B171" s="26" t="s">
         <v>209</v>
@@ -9546,7 +10135,7 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B172" t="s">
         <v>201</v>
@@ -9587,7 +10176,7 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B173" t="s">
         <v>206</v>
@@ -9628,7 +10217,7 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B174" t="s">
         <v>208</v>
@@ -9669,7 +10258,7 @@
     </row>
     <row r="177" spans="1:13" s="26" customFormat="1">
       <c r="A177" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B177" s="26" t="s">
         <v>206</v>
@@ -9710,7 +10299,7 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>201</v>
@@ -9751,7 +10340,7 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>209</v>
@@ -9792,7 +10381,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B180" t="s">
         <v>207</v>
@@ -9833,7 +10422,7 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B181" t="s">
         <v>205</v>
@@ -9874,7 +10463,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B182" t="s">
         <v>208</v>
@@ -9915,7 +10504,7 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B183" t="s">
         <v>203</v>
@@ -9956,7 +10545,7 @@
     </row>
     <row r="186" spans="1:13" s="26" customFormat="1">
       <c r="A186" s="26" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B186" s="26" t="s">
         <v>209</v>
@@ -9997,7 +10586,7 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B187" t="s">
         <v>206</v>
@@ -10038,7 +10627,7 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B188" t="s">
         <v>201</v>
@@ -10079,7 +10668,7 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B189" t="s">
         <v>205</v>
@@ -10120,7 +10709,7 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B190" t="s">
         <v>207</v>
@@ -10161,7 +10750,7 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B191" t="s">
         <v>203</v>
@@ -10202,7 +10791,7 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B192" t="s">
         <v>208</v>
@@ -10243,7 +10832,7 @@
     </row>
     <row r="196" spans="1:13" s="26" customFormat="1">
       <c r="A196" s="26" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B196" s="26" t="s">
         <v>206</v>
@@ -10284,7 +10873,7 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B197" t="s">
         <v>207</v>
@@ -10325,7 +10914,7 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B198" t="s">
         <v>205</v>
@@ -10366,7 +10955,7 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B199" t="s">
         <v>209</v>
@@ -10407,7 +10996,7 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B200" t="s">
         <v>208</v>
@@ -10448,7 +11037,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
         <v>203</v>
@@ -10489,7 +11078,7 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B202" t="s">
         <v>201</v>
@@ -10524,7 +11113,7 @@
     </row>
     <row r="205" spans="1:13" s="26" customFormat="1">
       <c r="A205" s="26" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B205" s="15" t="s">
         <v>201</v>
@@ -10565,7 +11154,7 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B206" t="s">
         <v>206</v>
@@ -10606,7 +11195,7 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B207" t="s">
         <v>207</v>
@@ -10647,7 +11236,7 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B208" t="s">
         <v>205</v>
@@ -10688,7 +11277,7 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B209" t="s">
         <v>208</v>
@@ -10729,7 +11318,7 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B210" t="s">
         <v>209</v>
@@ -10770,7 +11359,7 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B211" t="s">
         <v>203</v>
@@ -10811,7 +11400,7 @@
     </row>
     <row r="214" spans="1:13" s="26" customFormat="1">
       <c r="A214" s="26" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B214" s="26" t="s">
         <v>206</v>
@@ -10852,7 +11441,7 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="27" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B215" t="s">
         <v>201</v>
@@ -10893,7 +11482,7 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="24" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B216" t="s">
         <v>205</v>
@@ -10934,7 +11523,7 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="24" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B217" t="s">
         <v>203</v>
@@ -10975,7 +11564,7 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="24" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B218" t="s">
         <v>208</v>
@@ -11016,7 +11605,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="24" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B219" t="s">
         <v>207</v>
@@ -11057,7 +11646,7 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="24" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B220" t="s">
         <v>209</v>
@@ -11098,7 +11687,7 @@
     </row>
     <row r="223" spans="1:13" s="15" customFormat="1">
       <c r="A223" s="15" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B223" s="15" t="s">
         <v>206</v>
@@ -11139,7 +11728,7 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B224" t="s">
         <v>209</v>
@@ -11180,7 +11769,7 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B225" t="s">
         <v>201</v>
@@ -11221,7 +11810,7 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B226" t="s">
         <v>207</v>
@@ -11262,7 +11851,7 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B227" t="s">
         <v>208</v>
@@ -11303,7 +11892,7 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B228" t="s">
         <v>205</v>
@@ -11344,7 +11933,7 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B229" t="s">
         <v>203</v>
@@ -11385,7 +11974,7 @@
     </row>
     <row r="232" spans="1:13" s="15" customFormat="1">
       <c r="A232" s="15" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B232" s="15" t="s">
         <v>206</v>
@@ -11426,7 +12015,7 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="24" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B233" t="s">
         <v>207</v>
@@ -11467,7 +12056,7 @@
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="24" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B234" t="s">
         <v>208</v>
@@ -11508,7 +12097,7 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="24" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B235" t="s">
         <v>203</v>
@@ -11549,7 +12138,7 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="24" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B236" t="s">
         <v>201</v>
@@ -11590,7 +12179,7 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="24" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B237" t="s">
         <v>205</v>
@@ -11631,7 +12220,7 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="24" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B238" t="s">
         <v>209</v>
@@ -11672,10 +12261,10 @@
     </row>
     <row r="240" spans="1:13" s="24" customFormat="1" ht="17.25" thickBot="1">
       <c r="A240" s="24" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B240" s="24" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C240" s="28">
         <v>0.57540599999999997</v>
@@ -11695,10 +12284,10 @@
     </row>
     <row r="241" spans="1:7" s="24" customFormat="1">
       <c r="A241" s="24" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B241" s="24" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C241" s="24">
         <v>0.80974480000000004</v>
@@ -11718,10 +12307,10 @@
     </row>
     <row r="242" spans="1:7" ht="17.25" thickBot="1">
       <c r="A242" s="24" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B242" s="24" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C242" s="28">
         <v>0.69489559999999995</v>
@@ -11741,10 +12330,10 @@
     </row>
     <row r="243" spans="1:7" ht="17.25" thickBot="1">
       <c r="A243" s="24" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B243" s="24" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C243" s="28">
         <v>0.51276100000000002</v>
@@ -11764,10 +12353,10 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="24" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B246" s="24" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C246" s="16">
         <v>0.33639999999999998</v>
@@ -11783,6 +12372,213 @@
       </c>
       <c r="G246">
         <v>0.61450000000000005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A247" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B247" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C247" s="31">
+        <v>0.70362290000000005</v>
+      </c>
+      <c r="D247" s="32">
+        <v>0.3829804</v>
+      </c>
+      <c r="E247" s="31">
+        <v>0.18876080000000001</v>
+      </c>
+      <c r="F247" s="32">
+        <v>0.25270290000000001</v>
+      </c>
+      <c r="G247" s="31">
+        <v>0.60124639999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A248" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B248" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C248" s="28">
+        <v>0.69607490000000005</v>
+      </c>
+      <c r="D248" s="29">
+        <v>0.36745420000000001</v>
+      </c>
+      <c r="E248" s="28">
+        <v>0.17854020000000001</v>
+      </c>
+      <c r="F248" s="29">
+        <v>0.2401537</v>
+      </c>
+      <c r="G248" s="28">
+        <v>0.59042570000000005</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A249" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B249" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C249" s="28">
+        <v>0.70652720000000002</v>
+      </c>
+      <c r="D249" s="29">
+        <v>0.35868359999999999</v>
+      </c>
+      <c r="E249" s="28">
+        <v>0.1814897</v>
+      </c>
+      <c r="F249" s="29">
+        <v>0.2407183</v>
+      </c>
+      <c r="G249" s="28">
+        <v>0.60326420000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A250" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B250" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C250" s="28">
+        <v>0.75993489999999997</v>
+      </c>
+      <c r="D250" s="29">
+        <v>0.25825700000000001</v>
+      </c>
+      <c r="E250" s="28">
+        <v>0.193547</v>
+      </c>
+      <c r="F250" s="29">
+        <v>0.21996689999999999</v>
+      </c>
+      <c r="G250" s="28">
+        <v>0.57354459999999996</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A251" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B251" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C251" s="28">
+        <v>0.72655429999999999</v>
+      </c>
+      <c r="D251" s="29">
+        <v>0.35184890000000002</v>
+      </c>
+      <c r="E251" s="28">
+        <v>0.1958829</v>
+      </c>
+      <c r="F251" s="29">
+        <v>0.25153940000000002</v>
+      </c>
+      <c r="G251" s="28">
+        <v>0.59582630000000003</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A252" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B252" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C252" s="28">
+        <v>0.74542629999999999</v>
+      </c>
+      <c r="D252" s="29">
+        <v>0.26965470000000002</v>
+      </c>
+      <c r="E252" s="28">
+        <v>0.17999299999999999</v>
+      </c>
+      <c r="F252" s="29">
+        <v>0.21413660000000001</v>
+      </c>
+      <c r="G252" s="28">
+        <v>0.59644090000000005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A253" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B253" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C253" s="28">
+        <v>0.69606239999999997</v>
+      </c>
+      <c r="D253" s="29">
+        <v>0.34051720000000002</v>
+      </c>
+      <c r="E253" s="28">
+        <v>0.16860030000000001</v>
+      </c>
+      <c r="F253" s="29">
+        <v>0.2252528</v>
+      </c>
+      <c r="G253" s="28">
+        <v>0.59044140000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A254" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B254" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C254" s="28">
+        <v>0.69099520000000003</v>
+      </c>
+      <c r="D254" s="29">
+        <v>0.36637930000000002</v>
+      </c>
+      <c r="E254" s="28">
+        <v>0.17558679999999999</v>
+      </c>
+      <c r="F254" s="29">
+        <v>0.237234</v>
+      </c>
+      <c r="G254" s="28">
+        <v>0.58032249999999996</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A255" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B255" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C255" s="28">
+        <v>0.68535880000000005</v>
+      </c>
+      <c r="D255" s="29">
+        <v>0.34267239999999999</v>
+      </c>
+      <c r="E255" s="28">
+        <v>0.1638115</v>
+      </c>
+      <c r="F255" s="29">
+        <v>0.22157669999999999</v>
+      </c>
+      <c r="G255" s="28">
+        <v>0.57586280000000001</v>
       </c>
     </row>
   </sheetData>

--- a/建模版本記錄.xlsx
+++ b/建模版本記錄.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="353">
   <si>
     <t>資料更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1475,15 +1475,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網路帳號、業務、通路加入有些許幫助，類別變數弄成其他沒有幫助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研究成交任一跨售商品版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>研究所有變數有沒有錯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路帳號、業務、通路加入有些許幫助，類別變數空值弄成其他沒有幫助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0416v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本CRM欄位+
+HAS_ONLINE_ORDER、TICKET_ORDER_BEFORE、BOOK_ORDER_BEFORE、OTHER_ORDER_BEFORE、Latest_Order_From_180801+是否有網路帳號+NA數量欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商周內廣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0416v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svmRadial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本CRM欄位+
+HAS_ONLINE_ORDER、TICKET_ORDER_BEFORE、BOOK_ORDER_BEFORE、OTHER_ORDER_BEFORE、Latest_Order_From_180801+是否有網路帳號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1491,7 +1517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1607,8 +1633,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1645,8 +1678,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1665,11 +1704,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCFD4D8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1750,6 +1798,15 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2055,13 +2112,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4455,17 +4512,129 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="330.75" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" s="29">
+        <v>0.26392280000000001</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q55" s="33">
+        <v>43571</v>
+      </c>
+      <c r="R55" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="330.75" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B56" s="29">
+        <v>0.25284329999999999</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q56" s="34">
+        <v>43571</v>
+      </c>
+      <c r="R56" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4478,11 +4647,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:P260"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F255" sqref="F255"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K254" sqref="K254:Q260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4577,7 +4746,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
         <v>203</v>
@@ -12282,7 +12451,7 @@
         <v>0.61757859999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="24" customFormat="1">
+    <row r="241" spans="1:16" s="24" customFormat="1">
       <c r="A241" s="24" t="s">
         <v>299</v>
       </c>
@@ -12305,7 +12474,7 @@
         <v>0.62653449999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="17.25" thickBot="1">
+    <row r="242" spans="1:16" ht="17.25" thickBot="1">
       <c r="A242" s="24" t="s">
         <v>304</v>
       </c>
@@ -12328,7 +12497,7 @@
         <v>0.62653449999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="17.25" thickBot="1">
+    <row r="243" spans="1:16" ht="17.25" thickBot="1">
       <c r="A243" s="24" t="s">
         <v>307</v>
       </c>
@@ -12351,7 +12520,7 @@
         <v>0.62653449999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:16">
       <c r="A246" s="24" t="s">
         <v>311</v>
       </c>
@@ -12374,7 +12543,7 @@
         <v>0.61450000000000005</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="17.25" thickBot="1">
+    <row r="247" spans="1:16" ht="17.25" thickBot="1">
       <c r="A247" s="24" t="s">
         <v>321</v>
       </c>
@@ -12397,7 +12566,7 @@
         <v>0.60124639999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="17.25" thickBot="1">
+    <row r="248" spans="1:16" ht="17.25" thickBot="1">
       <c r="A248" s="24" t="s">
         <v>324</v>
       </c>
@@ -12420,7 +12589,7 @@
         <v>0.59042570000000005</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="17.25" thickBot="1">
+    <row r="249" spans="1:16" ht="17.25" thickBot="1">
       <c r="A249" s="24" t="s">
         <v>329</v>
       </c>
@@ -12443,7 +12612,7 @@
         <v>0.60326420000000003</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="17.25" thickBot="1">
+    <row r="250" spans="1:16" ht="17.25" thickBot="1">
       <c r="A250" s="24" t="s">
         <v>333</v>
       </c>
@@ -12466,7 +12635,7 @@
         <v>0.57354459999999996</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="17.25" thickBot="1">
+    <row r="251" spans="1:16" ht="17.25" thickBot="1">
       <c r="A251" s="24" t="s">
         <v>332</v>
       </c>
@@ -12489,7 +12658,7 @@
         <v>0.59582630000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="17.25" thickBot="1">
+    <row r="252" spans="1:16" ht="17.25" thickBot="1">
       <c r="A252" s="24" t="s">
         <v>335</v>
       </c>
@@ -12512,7 +12681,7 @@
         <v>0.59644090000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="17.25" thickBot="1">
+    <row r="253" spans="1:16" ht="17.25" thickBot="1">
       <c r="A253" s="24" t="s">
         <v>337</v>
       </c>
@@ -12535,7 +12704,7 @@
         <v>0.59044140000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="17.25" thickBot="1">
+    <row r="254" spans="1:16" ht="17.25" thickBot="1">
       <c r="A254" s="24" t="s">
         <v>340</v>
       </c>
@@ -12557,8 +12726,13 @@
       <c r="G254" s="28">
         <v>0.58032249999999996</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="17.25" thickBot="1">
+      <c r="K254" s="36"/>
+      <c r="L254" s="36"/>
+      <c r="M254" s="36"/>
+      <c r="N254" s="36"/>
+      <c r="O254" s="36"/>
+    </row>
+    <row r="255" spans="1:16" ht="17.25" thickBot="1">
       <c r="A255" s="24" t="s">
         <v>343</v>
       </c>
@@ -12580,6 +12754,94 @@
       <c r="G255" s="28">
         <v>0.57586280000000001</v>
       </c>
+      <c r="K255" s="37"/>
+      <c r="L255" s="37"/>
+      <c r="M255" s="37"/>
+      <c r="N255" s="37"/>
+      <c r="O255" s="37"/>
+      <c r="P255" s="37"/>
+    </row>
+    <row r="256" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A256" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B256" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C256" s="28">
+        <v>0.70471720000000004</v>
+      </c>
+      <c r="D256" s="29">
+        <v>0.40853660000000003</v>
+      </c>
+      <c r="E256" s="28">
+        <v>0.1950334</v>
+      </c>
+      <c r="F256" s="29">
+        <v>0.26392280000000001</v>
+      </c>
+      <c r="G256" s="28">
+        <v>0.60548769999999996</v>
+      </c>
+      <c r="K256" s="35"/>
+      <c r="L256" s="28"/>
+      <c r="M256" s="28"/>
+      <c r="N256" s="28"/>
+      <c r="O256" s="28"/>
+      <c r="P256" s="28"/>
+    </row>
+    <row r="257" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A257" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B257" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C257" s="28">
+        <v>0.70577350000000005</v>
+      </c>
+      <c r="D257" s="29">
+        <v>0.3841463</v>
+      </c>
+      <c r="E257" s="28">
+        <v>0.1884844</v>
+      </c>
+      <c r="F257" s="29">
+        <v>0.25284329999999999</v>
+      </c>
+      <c r="G257" s="28">
+        <v>0.60326880000000005</v>
+      </c>
+      <c r="K257" s="35"/>
+      <c r="L257" s="29"/>
+      <c r="M257" s="29"/>
+      <c r="N257" s="29"/>
+      <c r="O257" s="29"/>
+      <c r="P257" s="29"/>
+    </row>
+    <row r="258" spans="1:16" ht="17.25" thickBot="1">
+      <c r="K258" s="35"/>
+      <c r="L258" s="28"/>
+      <c r="M258" s="28"/>
+      <c r="N258" s="28"/>
+      <c r="O258" s="28"/>
+      <c r="P258" s="28"/>
+    </row>
+    <row r="259" spans="1:16" ht="17.25" thickBot="1">
+      <c r="K259" s="35"/>
+      <c r="L259" s="29"/>
+      <c r="M259" s="29"/>
+      <c r="N259" s="29"/>
+      <c r="O259" s="29"/>
+      <c r="P259" s="29"/>
+    </row>
+    <row r="260" spans="1:16" ht="17.25" thickBot="1">
+      <c r="K260" s="35"/>
+      <c r="L260" s="28"/>
+      <c r="M260" s="28"/>
+      <c r="N260" s="28"/>
+      <c r="O260" s="28"/>
+      <c r="P260" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="G1:G243"/>

--- a/建模版本記錄.xlsx
+++ b/建模版本記錄.xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">建模版本指標記錄!$G$1:$G$243</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">建模版本記錄!$B$1:$B$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">建模版本記錄!$A$1:$S$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="355">
   <si>
     <t>資料更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,11 +64,6 @@
   </si>
   <si>
     <t>seed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅含2018/08至今曾接觸住宿券
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -644,9 +639,6 @@
     <t>rowname</t>
   </si>
   <si>
-    <t>Accuracy_mean</t>
-  </si>
-  <si>
     <t>Sensitivity_mean</t>
   </si>
   <si>
@@ -725,11 +717,6 @@
   </si>
   <si>
     <t>0304v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅含2018/08至今曾接觸住宿券
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -861,11 +848,6 @@
     <t>SMOTE演算法，成功類別過採樣5倍，失敗類別降採樣至過採樣數量的1.8倍(成功樣本占比40%)</t>
   </si>
   <si>
-    <t>僅含2018/08至今曾接觸住宿券
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0305v7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -884,16 +866,6 @@
   <si>
     <t>過採樣的倍數影響不大，但搭配的降採樣倍數不能太超過，若降到成功組占比50%時，accuracy會很低
 最後決定維持過採樣3倍，成功組占比40%的設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"kknn",
-"naive_bayes",
-"svmRadial",
-"rf",
-"xgbTree",
-"nnet",
-"gbm"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -968,17 +940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>僅含2018/08至今曾接觸住宿券
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08至今曾接觸(任一商品)
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure，
-排除全部小結記錄皆為待確定且最新一次至今不到60天者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0310v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1018,12 +979,6 @@
   </si>
   <si>
     <t>0313v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08至今曾接觸(所有跨售商品)
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure，
-排除全部小結記錄皆為待確定且最新一次至今不到60天者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1422,11 +1377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>僅含2018/08至今曾接觸住宿券
-該段時間曾接觸中，曾結住宿券成功小結者為success，其他為faliure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本CRM欄位+
 HAS_ONLINE_ORDER、TICKET_ORDER_BEFORE、BOOK_ORDER_BEFORE、OTHER_ORDER_BEFORE、Latest_Order_From_180801+是否有網路帳號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1512,12 +1462,55 @@
 HAS_ONLINE_ORDER、TICKET_ORDER_BEFORE、BOOK_ORDER_BEFORE、OTHER_ORDER_BEFORE、Latest_Order_From_180801+是否有網路帳號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>caret套件預設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0423v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本CRM欄位+
+HAS_ONLINE_ORDER、TICKET_ORDER_BEFORE、BOOK_ORDER_BEFORE、OTHER_ORDER_BEFORE、Latest_Order_From_180801+是否有網路帳號+NA數量欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range2 x label_ticket</t>
+  </si>
+  <si>
+    <t>range1 x label_ticket</t>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range2 x label_any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0423v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy_mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1640,6 +1633,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1717,7 +1716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1807,6 +1806,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2112,13 +2114,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48:S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2138,10 +2140,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -2150,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -2162,19 +2164,19 @@
         <v>5</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>7</v>
@@ -2194,52 +2196,52 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="69.95" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1">
         <v>0.22850000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K2" s="1">
         <v>0.5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q2" s="3">
         <v>43523</v>
@@ -2250,52 +2252,52 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="102" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2">
         <v>0.22919999999999999</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K3" s="1">
         <v>0.5</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q3" s="3">
         <v>43523</v>
@@ -2306,52 +2308,52 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" s="2">
         <v>0.214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>186</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K4" s="1">
         <v>0.5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="3">
         <v>43523</v>
@@ -2362,52 +2364,52 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="234" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="2">
         <v>0.2394</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="1">
         <v>0.5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="3">
         <v>43523</v>
@@ -2418,10 +2420,10 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="264">
       <c r="A6" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K6" s="1">
         <v>0.5</v>
@@ -2429,61 +2431,61 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A8" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" s="2">
         <v>0.23019999999999999</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>227</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1">
         <v>0.5</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="3">
         <v>43523</v>
@@ -2494,52 +2496,52 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A9" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2">
         <v>0.22189999999999999</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1">
         <v>0.5</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q9" s="3">
         <v>43523</v>
@@ -2550,10 +2552,10 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K10" s="1">
         <v>0.5</v>
@@ -2561,52 +2563,52 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1">
         <v>0.5</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="3">
         <v>43523</v>
@@ -2617,52 +2619,52 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A12" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B12" s="2">
         <v>0.2074</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="1">
         <v>0.5</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="3">
         <v>43523</v>
@@ -2673,52 +2675,52 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A13" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B13" s="2">
         <v>0.2293</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="1">
         <v>0.5</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="3">
         <v>43523</v>
@@ -2729,52 +2731,52 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A14" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B14" s="2">
         <v>0.21299999999999999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1">
         <v>0.5</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="3">
         <v>43523</v>
@@ -2785,52 +2787,52 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A15" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B15" s="2">
         <v>0.21079999999999999</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="1">
         <v>0.5</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q15" s="3">
         <v>43523</v>
@@ -2841,10 +2843,10 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="297">
       <c r="A16" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K16" s="1">
         <v>0.5</v>
@@ -2852,52 +2854,52 @@
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A17" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B17" s="2">
         <v>0.21310000000000001</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="1">
         <v>0.5</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="3">
         <v>43523</v>
@@ -2906,57 +2908,57 @@
         <v>12</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" ht="297">
       <c r="A18" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B18" s="15">
         <v>0.23444636560076801</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="1">
         <v>0.5</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q18" s="3">
         <v>43523</v>
@@ -2967,52 +2969,52 @@
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A19" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B19" s="17">
         <v>0.23901317784224799</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1">
         <v>0.5</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="3">
         <v>43523</v>
@@ -3023,52 +3025,52 @@
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A20" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B20" s="15">
         <v>0.20526534832202201</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="1">
         <v>0.5</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="3">
         <v>43523</v>
@@ -3079,52 +3081,52 @@
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A21" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B21" s="15">
         <v>0.219589280832097</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="1">
         <v>0.5</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="3">
         <v>43523</v>
@@ -3135,52 +3137,52 @@
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" ht="313.5">
       <c r="A22" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B22" s="15">
         <v>0.18939648550028801</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="1">
         <v>0.5</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="3">
         <v>43523</v>
@@ -3191,52 +3193,52 @@
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" ht="136.5" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B23" s="15">
         <v>0.194773520961316</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="1">
         <v>0.5</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q23" s="3">
         <v>43523</v>
@@ -3247,52 +3249,52 @@
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" ht="363">
       <c r="A24" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B24" s="26">
         <v>0.181349428413286</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="1">
         <v>0.5</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q24" s="3">
         <v>43523</v>
@@ -3303,52 +3305,52 @@
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A25" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B25" s="26">
         <v>5.3287185063376298E-2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="1">
         <v>0.5</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="3">
         <v>43536</v>
@@ -3359,52 +3361,52 @@
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" ht="196.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B26" s="26">
         <v>5.9339466462468002E-2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>273</v>
-      </c>
       <c r="I26" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="1">
         <v>0.5</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q26" s="3">
         <v>43536</v>
@@ -3415,52 +3417,52 @@
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A27" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B27" s="26">
         <v>6.2217676187065599E-2</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>266</v>
+      <c r="C27" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="1">
         <v>0.5</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q27" s="3">
         <v>43536</v>
@@ -3471,52 +3473,52 @@
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A28" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B28" s="15">
         <v>0.111581257028376</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" s="1">
         <v>0.5</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="3">
         <v>43536</v>
@@ -3527,52 +3529,52 @@
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" ht="205.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B29" s="26">
         <v>0.11621265861266</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="1">
         <v>0.5</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="3">
         <v>43536</v>
@@ -3583,52 +3585,52 @@
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A30" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B30" s="15">
         <v>0.11168548851933099</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1">
         <v>0.5</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="3">
         <v>43536</v>
@@ -3639,52 +3641,52 @@
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" ht="330">
       <c r="A31" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B31" s="15">
         <v>0.25343975254332501</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="1">
         <v>0.5</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="3">
         <v>43542</v>
@@ -3695,70 +3697,70 @@
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1">
       <c r="B32" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1">
       <c r="B33" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A35" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B35" s="15">
         <v>0.26126129999999997</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K35" s="14">
         <v>0.35</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q35" s="3">
         <v>43546</v>
@@ -3769,52 +3771,52 @@
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="330">
       <c r="A36" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B36" s="15">
         <v>0.26126129999999997</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="14">
         <v>0.35</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q36" s="3">
         <v>43546</v>
@@ -3825,62 +3827,62 @@
     </row>
     <row r="37" spans="1:18">
       <c r="B37" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="B38" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="330.75" thickBot="1">
       <c r="A39" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B39" s="30">
         <v>0.1755486</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="P39" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q39" s="3">
         <v>43546</v>
@@ -3891,52 +3893,52 @@
     </row>
     <row r="40" spans="1:18" ht="330.75" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B40" s="30">
         <v>0.24187729999999999</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="P40" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q40" s="3">
         <v>43546</v>
@@ -3947,52 +3949,52 @@
     </row>
     <row r="41" spans="1:18" ht="330">
       <c r="A41" s="24" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B41">
         <v>0.16830000000000001</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K41" s="18">
         <v>0.5</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q41" s="3">
         <v>43546</v>
@@ -4003,57 +4005,57 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="330.75" thickBot="1">
       <c r="A43" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B43" s="32">
         <v>0.25270290000000001</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K43" s="1">
         <v>0.5</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q43" s="3">
         <v>43542</v>
@@ -4064,52 +4066,52 @@
     </row>
     <row r="44" spans="1:18" ht="330.75" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B44" s="29">
         <v>0.2401537</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K44" s="1">
         <v>0.5</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q44" s="3">
         <v>43542</v>
@@ -4120,52 +4122,52 @@
     </row>
     <row r="45" spans="1:18" ht="409.6" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B45" s="29">
         <v>0.2407183</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K45" s="1">
         <v>0.5</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q45" s="3">
         <v>43542</v>
@@ -4176,52 +4178,52 @@
     </row>
     <row r="46" spans="1:18" ht="409.6" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B46" s="29">
         <v>0.21996689999999999</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K46" s="1">
         <v>0.5</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q46" s="3">
         <v>43542</v>
@@ -4232,52 +4234,52 @@
     </row>
     <row r="47" spans="1:18" ht="409.6" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B47" s="29">
         <v>0.25153940000000002</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>334</v>
-      </c>
       <c r="G47" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K47" s="1">
         <v>0.5</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q47" s="3">
         <v>43542</v>
@@ -4288,52 +4290,52 @@
     </row>
     <row r="48" spans="1:18" ht="409.6" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B48" s="29">
         <v>0.21413660000000001</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K48" s="1">
         <v>0.5</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q48" s="3">
         <v>43542</v>
@@ -4344,52 +4346,52 @@
     </row>
     <row r="49" spans="1:18" ht="330.75" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B49" s="29">
         <v>0.2252528</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K49" s="1">
         <v>0.5</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q49" s="33">
         <v>43551</v>
@@ -4400,52 +4402,52 @@
     </row>
     <row r="50" spans="1:18" ht="330.75" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B50" s="29">
         <v>0.237234</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K50" s="1">
         <v>0.5</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q50" s="34">
         <v>43551</v>
@@ -4456,52 +4458,52 @@
     </row>
     <row r="51" spans="1:18" ht="330.75" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B51" s="29">
         <v>0.22157669999999999</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K51" s="1">
         <v>0.5</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q51" s="34">
         <v>43551</v>
@@ -4512,67 +4514,67 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="330.75" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B55" s="29">
         <v>0.26392280000000001</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K55" s="1">
         <v>0.5</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q55" s="33">
         <v>43571</v>
@@ -4583,52 +4585,52 @@
     </row>
     <row r="56" spans="1:18" ht="330.75" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B56" s="29">
         <v>0.25284329999999999</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K56" s="1">
         <v>0.5</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q56" s="34">
         <v>43571</v>
@@ -4637,8 +4639,64 @@
         <v>12</v>
       </c>
     </row>
+    <row r="57" spans="1:18" ht="330.75" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="38">
+        <v>0.181057</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q57" s="34">
+        <v>43571</v>
+      </c>
+      <c r="R57" s="1">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B42"/>
+  <autoFilter ref="A1:S57"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4650,8 +4708,8 @@
   <dimension ref="A1:P260"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K254" sqref="K254:Q260"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4664,51 +4722,51 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" t="s">
         <v>190</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" t="s">
         <v>193</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>194</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>195</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>196</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>197</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>198</v>
-      </c>
-      <c r="L1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" s="17">
         <v>0.60805615563609505</v>
@@ -4741,15 +4799,15 @@
         <v>1.0468637862039601E-2</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C3" s="16">
         <v>0.34697450302420801</v>
@@ -4782,15 +4840,15 @@
         <v>3.6799307943931499E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="16">
         <v>0.63619745327802701</v>
@@ -4823,15 +4881,15 @@
         <v>4.3365882227407601E-2</v>
       </c>
       <c r="M4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" s="16">
         <v>0.71533220657053498</v>
@@ -4864,15 +4922,15 @@
         <v>1.1095725383296199E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" s="16">
         <v>0.75652104050989999</v>
@@ -4905,15 +4963,15 @@
         <v>1.2030580336496399E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" s="16">
         <v>0.57084421909188499</v>
@@ -4946,15 +5004,15 @@
         <v>1.03026005954909E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="16">
         <v>0.78106284678208004</v>
@@ -4987,15 +5045,15 @@
         <v>3.9148389632102001E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" s="17">
         <v>0.65024132164515303</v>
@@ -5028,15 +5086,15 @@
         <v>1.9930684030920399E-2</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" s="16">
         <v>0.60170720433882996</v>
@@ -5069,15 +5127,15 @@
         <v>3.9518252927177602E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C12" s="16">
         <v>0.24639703708993699</v>
@@ -5110,15 +5168,15 @@
         <v>2.73968020809051E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="16">
         <v>0.442297544728317</v>
@@ -5151,15 +5209,15 @@
         <v>3.3868804627680001E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="16">
         <v>0.71393367175891997</v>
@@ -5192,15 +5250,15 @@
         <v>1.6475492259702299E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="16">
         <v>0.63063207822273004</v>
@@ -5233,15 +5291,15 @@
         <v>1.46822997056261E-2</v>
       </c>
       <c r="M15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" s="16">
         <v>0.74667575218359905</v>
@@ -5274,15 +5332,15 @@
         <v>1.01969381657887E-2</v>
       </c>
       <c r="M16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18" s="16">
         <v>0.59076342147078298</v>
@@ -5315,15 +5373,15 @@
         <v>3.50026667231624E-2</v>
       </c>
       <c r="M18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" s="16">
         <v>0.55990539556714103</v>
@@ -5356,15 +5414,15 @@
         <v>1.6286117708772901E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C20" s="16">
         <v>0.31494160869194299</v>
@@ -5397,15 +5455,15 @@
         <v>3.08459428826236E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21" s="17">
         <v>0.73366094755196898</v>
@@ -5438,15 +5496,15 @@
         <v>2.1330676818972001E-2</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C22" s="16">
         <v>0.70689735547977695</v>
@@ -5479,15 +5537,15 @@
         <v>2.02888130032607E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="16">
         <v>0.77329651516864695</v>
@@ -5520,15 +5578,15 @@
         <v>3.9281671075413797E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C24" s="16">
         <v>0.59605355297272999</v>
@@ -5561,15 +5619,15 @@
         <v>1.5724119501581799E-2</v>
       </c>
       <c r="M24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="16" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C27" s="17">
         <v>0.643546704119627</v>
@@ -5602,15 +5660,15 @@
         <v>1.1723377615667999E-2</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" s="16">
         <v>0.50123190087661396</v>
@@ -5643,15 +5701,15 @@
         <v>1.3850248509649899E-2</v>
       </c>
       <c r="M28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C29" s="16">
         <v>0.71638904262853098</v>
@@ -5684,15 +5742,15 @@
         <v>1.3611450510145701E-2</v>
       </c>
       <c r="M29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C30" s="16">
         <v>0.28437767184620499</v>
@@ -5725,15 +5783,15 @@
         <v>4.0903736525718097E-2</v>
       </c>
       <c r="M30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C31" s="16">
         <v>0.77444063566878696</v>
@@ -5766,15 +5824,15 @@
         <v>5.2834930309626597E-2</v>
       </c>
       <c r="M31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C32" s="16">
         <v>0.75371306033140295</v>
@@ -5807,15 +5865,15 @@
         <v>5.8257153101352998E-3</v>
       </c>
       <c r="M32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C33" s="16">
         <v>0.60486977756353399</v>
@@ -5848,15 +5906,15 @@
         <v>2.63859002036714E-2</v>
       </c>
       <c r="M33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="24" customFormat="1">
       <c r="A35" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C35" s="25">
         <v>0.55688614736391095</v>
@@ -5889,15 +5947,15 @@
         <v>8.6134611076376395E-3</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="15" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36" s="17">
         <v>0.62737428560659703</v>
@@ -5930,15 +5988,15 @@
         <v>2.4283797182331601E-2</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C37" s="16">
         <v>0.29103063088797998</v>
@@ -5971,15 +6029,15 @@
         <v>2.50048879106873E-2</v>
       </c>
       <c r="M37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C38" s="16">
         <v>0.57259437134372404</v>
@@ -6012,15 +6070,15 @@
         <v>8.6287555579247707E-3</v>
       </c>
       <c r="M38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C39" s="16">
         <v>0.69915978805750501</v>
@@ -6053,15 +6111,15 @@
         <v>1.5025097525493501E-2</v>
       </c>
       <c r="M39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C40" s="16">
         <v>0.70829390655406999</v>
@@ -6094,15 +6152,15 @@
         <v>1.66995892636977E-2</v>
       </c>
       <c r="M40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C41" s="16">
         <v>0.58835268469090396</v>
@@ -6135,15 +6193,15 @@
         <v>1.3578326757166701E-2</v>
       </c>
       <c r="M41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C44" s="16">
         <v>0.30191986097968898</v>
@@ -6176,15 +6234,15 @@
         <v>3.4555830953166902E-2</v>
       </c>
       <c r="M44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C45" s="16">
         <v>0.56662084233454102</v>
@@ -6217,15 +6275,15 @@
         <v>1.19174170312909E-2</v>
       </c>
       <c r="M45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="15" customFormat="1">
       <c r="A46" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C46" s="17">
         <v>0.63792578441933001</v>
@@ -6258,15 +6316,15 @@
         <v>2.3612919527285399E-2</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C47" s="16">
         <v>0.752292704409253</v>
@@ -6299,15 +6357,15 @@
         <v>9.8765203580657903E-3</v>
       </c>
       <c r="M47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C48" s="16">
         <v>0.71396937903070601</v>
@@ -6340,15 +6398,15 @@
         <v>1.3079056764198099E-2</v>
       </c>
       <c r="M48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C49" s="16">
         <v>0.69952628352764001</v>
@@ -6381,15 +6439,15 @@
         <v>8.7909502379688396E-3</v>
       </c>
       <c r="M49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C50" s="16">
         <v>0.87544212545551603</v>
@@ -6422,15 +6480,15 @@
         <v>7.1796455264286499E-3</v>
       </c>
       <c r="M50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C53" s="16">
         <v>0.49370708928206603</v>
@@ -6463,15 +6521,15 @@
         <v>1.9553771991587501E-2</v>
       </c>
       <c r="M53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C54" s="16">
         <v>0.57318155759086997</v>
@@ -6504,15 +6562,15 @@
         <v>3.4605607535077201E-2</v>
       </c>
       <c r="M54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C55" s="16">
         <v>0.294557715845499</v>
@@ -6545,15 +6603,15 @@
         <v>2.2196679983857399E-2</v>
       </c>
       <c r="M55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C56" s="16">
         <v>0.59175380232851105</v>
@@ -6586,15 +6644,15 @@
         <v>3.6862441431145997E-2</v>
       </c>
       <c r="M56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C57" s="16">
         <v>0.57282597267600199</v>
@@ -6627,15 +6685,15 @@
         <v>1.5831866895930798E-2</v>
       </c>
       <c r="M57" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C58" s="16">
         <v>0.25513688779386601</v>
@@ -6668,15 +6726,15 @@
         <v>3.9917708200061401E-2</v>
       </c>
       <c r="M58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C59" s="16">
         <v>0.26109256316715601</v>
@@ -6709,15 +6767,15 @@
         <v>2.0545557417794E-2</v>
       </c>
       <c r="M59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C62" s="17">
         <v>0.65481532397406095</v>
@@ -6750,15 +6808,15 @@
         <v>3.3446596422449799E-2</v>
       </c>
       <c r="M62" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C63" s="16">
         <v>0.6937625347402</v>
@@ -6791,15 +6849,15 @@
         <v>5.3087212540043199E-3</v>
       </c>
       <c r="M63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" s="16">
         <v>0.52281595480252896</v>
@@ -6832,15 +6890,15 @@
         <v>3.3798882421431503E-2</v>
       </c>
       <c r="M64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C65" s="16">
         <v>0.743551861836663</v>
@@ -6873,15 +6931,15 @@
         <v>2.3441429167222302E-2</v>
       </c>
       <c r="M65" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C66" s="16">
         <v>0.79521482883322503</v>
@@ -6914,15 +6972,15 @@
         <v>2.7034415960038301E-2</v>
       </c>
       <c r="M66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C67" s="16">
         <v>0.78119278157663496</v>
@@ -6955,15 +7013,15 @@
         <v>2.3655252537000002E-2</v>
       </c>
       <c r="M67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C68" s="16">
         <v>0.83709003588580799</v>
@@ -6996,15 +7054,15 @@
         <v>1.13639075668185E-2</v>
       </c>
       <c r="M68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="15" customFormat="1">
       <c r="A71" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C71" s="15">
         <v>0.641116129966534</v>
@@ -7037,15 +7095,15 @@
         <v>3.6126259791940701E-2</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C72">
         <v>0.41153275447878301</v>
@@ -7078,15 +7136,15 @@
         <v>1.24199687077425E-2</v>
       </c>
       <c r="M72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C73">
         <v>0.201617638598767</v>
@@ -7119,15 +7177,15 @@
         <v>2.6049691492640699E-2</v>
       </c>
       <c r="M73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C74">
         <v>0.71216764960850898</v>
@@ -7160,15 +7218,15 @@
         <v>1.9382434167981601E-2</v>
       </c>
       <c r="M74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C75">
         <v>0.60673101910537397</v>
@@ -7201,15 +7259,15 @@
         <v>4.0661726323446702E-2</v>
       </c>
       <c r="M75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C76">
         <v>0.59992729602716899</v>
@@ -7242,15 +7300,15 @@
         <v>1.55775591689993E-2</v>
       </c>
       <c r="M76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C77">
         <v>0.755381879353064</v>
@@ -7283,15 +7341,15 @@
         <v>4.4675551653946301E-2</v>
       </c>
       <c r="M77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C80">
         <v>0.35399891687942198</v>
@@ -7324,15 +7382,15 @@
         <v>2.6321026208169201E-2</v>
       </c>
       <c r="M80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:13" s="15" customFormat="1">
       <c r="A81" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C81" s="15">
         <v>0.73964141964177699</v>
@@ -7365,15 +7423,15 @@
         <v>1.0440746493560801E-2</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C82">
         <v>0.63442746365297298</v>
@@ -7406,15 +7464,15 @@
         <v>2.0657463615908402E-2</v>
       </c>
       <c r="M82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C83">
         <v>0.75129934794554198</v>
@@ -7447,15 +7505,15 @@
         <v>1.73607515920557E-2</v>
       </c>
       <c r="M83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C84">
         <v>0.77515081362986205</v>
@@ -7488,15 +7546,15 @@
         <v>2.8710020108203799E-2</v>
       </c>
       <c r="M84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C85">
         <v>0.76851868382996202</v>
@@ -7529,15 +7587,15 @@
         <v>9.9996271712031095E-3</v>
       </c>
       <c r="M85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C86">
         <v>0.82548666035838203</v>
@@ -7570,15 +7628,15 @@
         <v>1.3328180325539099E-2</v>
       </c>
       <c r="M86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C89">
         <v>0.56157619832612204</v>
@@ -7611,15 +7669,15 @@
         <v>2.6686472992886401E-2</v>
       </c>
       <c r="M89" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C90">
         <v>0.275225699713747</v>
@@ -7652,15 +7710,15 @@
         <v>1.8088283033278599E-2</v>
       </c>
       <c r="M90" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C91">
         <v>0.26425513639185999</v>
@@ -7693,15 +7751,15 @@
         <v>2.9392595844645701E-2</v>
       </c>
       <c r="M91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C92">
         <v>0.59324656466289405</v>
@@ -7734,15 +7792,15 @@
         <v>2.34858275064284E-2</v>
       </c>
       <c r="M92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C93">
         <v>0.21013481478836499</v>
@@ -7775,15 +7833,15 @@
         <v>2.6371627048167801E-2</v>
       </c>
       <c r="M93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="15" customFormat="1">
       <c r="A94" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C94" s="15">
         <v>0.62191256082634605</v>
@@ -7816,15 +7874,15 @@
         <v>4.1942752838543498E-2</v>
       </c>
       <c r="M94" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C95">
         <v>0.55841957631338301</v>
@@ -7857,15 +7915,15 @@
         <v>2.1661001289596599E-2</v>
       </c>
       <c r="M95" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C97">
         <v>0.86919831223628696</v>
@@ -7898,15 +7956,15 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C98">
         <v>0.86216596343178598</v>
@@ -7939,15 +7997,15 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C99">
         <v>0.88115330520393798</v>
@@ -7980,15 +8038,15 @@
         <v>1.77196996459742E-2</v>
       </c>
       <c r="M99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C100">
         <v>0.88045007032348799</v>
@@ -8021,15 +8079,15 @@
         <v>9.9891644919462806E-3</v>
       </c>
       <c r="M100" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C101">
         <v>0.87904360056258801</v>
@@ -8056,15 +8114,15 @@
         <v>5.6244412418030498E-3</v>
       </c>
       <c r="M101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C102">
         <v>0.87904360056258801</v>
@@ -8091,15 +8149,15 @@
         <v>1.18248240898427E-2</v>
       </c>
       <c r="M102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C103">
         <v>0.87904360056258801</v>
@@ -8126,15 +8184,15 @@
         <v>3.74273841724537E-3</v>
       </c>
       <c r="M103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C106">
         <v>0.55351676952344697</v>
@@ -8167,15 +8225,15 @@
         <v>1.15200614896173E-2</v>
       </c>
       <c r="M106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:13" s="15" customFormat="1">
       <c r="A107" s="20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C107" s="15">
         <v>0.68197120010156698</v>
@@ -8208,15 +8266,15 @@
         <v>9.4823839251237593E-3</v>
       </c>
       <c r="M107" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C108">
         <v>0.58552883461383598</v>
@@ -8249,15 +8307,15 @@
         <v>3.4962708065261403E-2</v>
       </c>
       <c r="M108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C109">
         <v>0.77270635331551896</v>
@@ -8290,15 +8348,15 @@
         <v>1.48903327815702E-2</v>
       </c>
       <c r="M109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C110">
         <v>0.61755577773413595</v>
@@ -8331,15 +8389,15 @@
         <v>3.55354001538025E-2</v>
       </c>
       <c r="M110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C111">
         <v>0.70760356596620899</v>
@@ -8372,15 +8430,15 @@
         <v>1.7691323374680299E-2</v>
       </c>
       <c r="M111" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C112">
         <v>0.72581824205166101</v>
@@ -8413,15 +8471,15 @@
         <v>3.9700546499657402E-2</v>
       </c>
       <c r="M112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="15" customFormat="1">
       <c r="A115" s="20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C115" s="15">
         <v>0.64742342278004905</v>
@@ -8454,15 +8512,15 @@
         <v>4.0395797522070002E-2</v>
       </c>
       <c r="M115" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C116">
         <v>0.70019281926764398</v>
@@ -8495,15 +8553,15 @@
         <v>2.3644247853784599E-2</v>
       </c>
       <c r="M116" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C117">
         <v>0.60415067278451295</v>
@@ -8536,15 +8594,15 @@
         <v>3.51252008348776E-2</v>
       </c>
       <c r="M117" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C118">
         <v>0.56299457051095103</v>
@@ -8577,15 +8635,15 @@
         <v>2.1185200404805499E-2</v>
       </c>
       <c r="M118" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C119">
         <v>0.26381028329752698</v>
@@ -8618,15 +8676,15 @@
         <v>2.5462620781979101E-2</v>
       </c>
       <c r="M119" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C120">
         <v>0.14495862915816099</v>
@@ -8659,15 +8717,15 @@
         <v>1.20196863057949E-2</v>
       </c>
       <c r="M120" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C121">
         <v>0.59089484406832804</v>
@@ -8700,15 +8758,15 @@
         <v>4.1060807016669899E-2</v>
       </c>
       <c r="M121" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="17" customFormat="1">
       <c r="A124" s="22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C124" s="17">
         <v>0.71146739033404105</v>
@@ -8741,15 +8799,15 @@
         <v>1.01894701690431E-2</v>
       </c>
       <c r="M124" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C125">
         <v>0.63581112043467702</v>
@@ -8782,15 +8840,15 @@
         <v>2.1709074997801499E-2</v>
       </c>
       <c r="M125" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C126">
         <v>0.61016784401476698</v>
@@ -8823,15 +8881,15 @@
         <v>1.11970965986278E-2</v>
       </c>
       <c r="M126" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C127">
         <v>0.17979652806294</v>
@@ -8864,15 +8922,15 @@
         <v>2.0525509794766E-2</v>
       </c>
       <c r="M127" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C128">
         <v>0.15271008274168399</v>
@@ -8905,15 +8963,15 @@
         <v>2.7831746424500099E-2</v>
       </c>
       <c r="M128" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B129" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C129">
         <v>0.58836954645813599</v>
@@ -8946,15 +9004,15 @@
         <v>2.2571821185064699E-2</v>
       </c>
       <c r="M129" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C130">
         <v>0.64732225217665595</v>
@@ -8987,15 +9045,15 @@
         <v>2.1698996910975502E-2</v>
       </c>
       <c r="M130" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C133">
         <v>0.24487154308975001</v>
@@ -9028,15 +9086,15 @@
         <v>1.8140532987289602E-2</v>
       </c>
       <c r="M133" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="15" customFormat="1">
       <c r="A134" s="20" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C134" s="15">
         <v>0.73047060200476499</v>
@@ -9069,15 +9127,15 @@
         <v>1.9229164015716199E-2</v>
       </c>
       <c r="M134" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C135">
         <v>0.47378937470615901</v>
@@ -9110,15 +9168,15 @@
         <v>4.0888485626395001E-2</v>
       </c>
       <c r="M135" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C136">
         <v>0.62811025215285099</v>
@@ -9151,15 +9209,15 @@
         <v>1.1638179328069201E-2</v>
       </c>
       <c r="M136" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B137" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C137">
         <v>0.54081390758561299</v>
@@ -9192,15 +9250,15 @@
         <v>1.5551766450219299E-2</v>
       </c>
       <c r="M137" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B138" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C138">
         <v>0.64005631830255605</v>
@@ -9233,15 +9291,15 @@
         <v>2.0284503160141201E-2</v>
       </c>
       <c r="M138" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B139" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C139">
         <v>0.71350171295717701</v>
@@ -9274,15 +9332,15 @@
         <v>4.21633401001002E-2</v>
       </c>
       <c r="M139" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B142" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C142">
         <v>0.40466455993763101</v>
@@ -9315,15 +9373,15 @@
         <v>2.80848509134205E-2</v>
       </c>
       <c r="M142" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:13" s="15" customFormat="1">
       <c r="A143" s="20" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C143" s="15">
         <v>0.69457289143600798</v>
@@ -9356,15 +9414,15 @@
         <v>3.5568942950396101E-2</v>
       </c>
       <c r="M143" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B144" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C144">
         <v>0.13369893612167499</v>
@@ -9397,15 +9455,15 @@
         <v>3.0670587364492699E-2</v>
       </c>
       <c r="M144" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C145">
         <v>0.131594190823628</v>
@@ -9438,15 +9496,15 @@
         <v>1.13242395118662E-2</v>
       </c>
       <c r="M145" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C146">
         <v>0.61193188242785601</v>
@@ -9479,15 +9537,15 @@
         <v>3.4619777044413401E-2</v>
       </c>
       <c r="M146" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C147">
         <v>0.60627227984979104</v>
@@ -9520,15 +9578,15 @@
         <v>2.6970931120667001E-2</v>
       </c>
       <c r="M147" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B148" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C148">
         <v>0.80859811267231196</v>
@@ -9561,15 +9619,15 @@
         <v>1.9837112426892001E-2</v>
       </c>
       <c r="M148" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C150">
         <v>0.14741895937107599</v>
@@ -9602,15 +9660,15 @@
         <v>2.4488345043089301E-2</v>
       </c>
       <c r="M150" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C151">
         <v>0.36797137070297697</v>
@@ -9643,15 +9701,15 @@
         <v>2.2991008088793299E-2</v>
       </c>
       <c r="M151" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B152" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C152">
         <v>0.13722899668517499</v>
@@ -9684,15 +9742,15 @@
         <v>1.5732099291681099E-2</v>
       </c>
       <c r="M152" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B153" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C153">
         <v>0.23218653478781001</v>
@@ -9725,15 +9783,15 @@
         <v>3.5195932104898103E-2</v>
       </c>
       <c r="M153" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:13" s="15" customFormat="1">
       <c r="A154" s="20" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C154" s="15">
         <v>0.68719586827190704</v>
@@ -9766,15 +9824,15 @@
         <v>3.3583097292075398E-2</v>
       </c>
       <c r="M154" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C155">
         <v>0.78149877305846704</v>
@@ -9807,15 +9865,15 @@
         <v>1.55696821430862E-2</v>
       </c>
       <c r="M155" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B156" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C156">
         <v>0.75927248417473503</v>
@@ -9848,15 +9906,15 @@
         <v>2.13748923715186E-2</v>
       </c>
       <c r="M156" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B159" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C159">
         <v>0.15515355118736601</v>
@@ -9889,15 +9947,15 @@
         <v>2.4728279095039499E-2</v>
       </c>
       <c r="M159" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B160" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C160">
         <v>0.162193834941152</v>
@@ -9930,15 +9988,15 @@
         <v>2.4731548647422701E-2</v>
       </c>
       <c r="M160" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C161">
         <v>0.19774290367566699</v>
@@ -9971,15 +10029,15 @@
         <v>8.8985613019734993E-3</v>
       </c>
       <c r="M161" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B162" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C162">
         <v>0.336694280290181</v>
@@ -10012,15 +10070,15 @@
         <v>2.2997166022541801E-2</v>
       </c>
       <c r="M162" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="163" spans="1:13" s="15" customFormat="1">
       <c r="A163" s="20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C163" s="15">
         <v>0.68191267985058501</v>
@@ -10053,15 +10111,15 @@
         <v>2.70206608924187E-2</v>
       </c>
       <c r="M163" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B164" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C164">
         <v>0.78537350798156702</v>
@@ -10094,15 +10152,15 @@
         <v>4.0424461953110599E-2</v>
       </c>
       <c r="M164" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B165" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C165">
         <v>0.72623135534884997</v>
@@ -10135,15 +10193,15 @@
         <v>2.9946751876249199E-2</v>
       </c>
       <c r="M165" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C168">
         <v>0.47707196403881003</v>
@@ -10176,15 +10234,15 @@
         <v>5.1546013289631203E-2</v>
       </c>
       <c r="M168" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C169">
         <v>0.49114856407174001</v>
@@ -10217,15 +10275,15 @@
         <v>3.0891056333974699E-2</v>
       </c>
       <c r="M169" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C170">
         <v>0.522186118202972</v>
@@ -10258,15 +10316,15 @@
         <v>1.26173468182335E-2</v>
       </c>
       <c r="M170" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:13" s="26" customFormat="1">
       <c r="A171" s="26" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C171" s="26">
         <v>0.64536231970307401</v>
@@ -10299,15 +10357,15 @@
         <v>1.17681534915895E-2</v>
       </c>
       <c r="M171" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C172">
         <v>0.50914453311750296</v>
@@ -10340,15 +10398,15 @@
         <v>3.7394752635067897E-2</v>
       </c>
       <c r="M172" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B173" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C173">
         <v>0.50138117711005203</v>
@@ -10381,15 +10439,15 @@
         <v>3.5547806231168898E-2</v>
       </c>
       <c r="M173" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B174" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C174">
         <v>0.55345527366648195</v>
@@ -10422,15 +10480,15 @@
         <v>4.3949391006067998E-2</v>
       </c>
       <c r="M174" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:13" s="26" customFormat="1">
       <c r="A177" s="26" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C177" s="26">
         <v>0.76777419245085798</v>
@@ -10463,15 +10521,15 @@
         <v>1.86858443101224E-2</v>
       </c>
       <c r="M177" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C178">
         <v>0.67595035368688905</v>
@@ -10504,15 +10562,15 @@
         <v>1.50115298258872E-2</v>
       </c>
       <c r="M178" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B179" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C179">
         <v>0.76846041938951404</v>
@@ -10545,15 +10603,15 @@
         <v>3.2060825565210803E-2</v>
       </c>
       <c r="M179" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B180" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C180">
         <v>0.54622686467000503</v>
@@ -10586,15 +10644,15 @@
         <v>1.9197199645102601E-2</v>
       </c>
       <c r="M180" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B181" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C181">
         <v>0.73201403802690601</v>
@@ -10627,15 +10685,15 @@
         <v>2.5160823662162601E-2</v>
       </c>
       <c r="M181" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B182" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C182">
         <v>0.15321764776048299</v>
@@ -10668,15 +10726,15 @@
         <v>1.75136261310074E-2</v>
       </c>
       <c r="M182" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B183" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C183">
         <v>4.9429954313831098E-2</v>
@@ -10709,15 +10767,15 @@
         <v>3.51934444174525E-2</v>
       </c>
       <c r="M183" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:13" s="26" customFormat="1">
       <c r="A186" s="26" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C186" s="26">
         <v>0.82149936803005696</v>
@@ -10750,15 +10808,15 @@
         <v>3.03890563741991E-2</v>
       </c>
       <c r="M186" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B187" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C187">
         <v>0.76936495706079699</v>
@@ -10791,15 +10849,15 @@
         <v>4.8167609749556603E-3</v>
       </c>
       <c r="M187" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B188" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C188">
         <v>0.67040114921171701</v>
@@ -10832,15 +10890,15 @@
         <v>1.2385684792861401E-2</v>
       </c>
       <c r="M188" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B189" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C189">
         <v>0.750882415026907</v>
@@ -10873,15 +10931,15 @@
         <v>1.92108620209148E-2</v>
       </c>
       <c r="M189" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B190" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C190">
         <v>0.32006469909586699</v>
@@ -10914,15 +10972,15 @@
         <v>6.5686123689136497E-2</v>
       </c>
       <c r="M190" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B191" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C191">
         <v>1.9258137483460998E-2</v>
@@ -10955,15 +11013,15 @@
         <v>9.4881529741626999E-3</v>
       </c>
       <c r="M191" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C192">
         <v>2.8305731208714099E-2</v>
@@ -10996,15 +11054,15 @@
         <v>8.72434763753243E-3</v>
       </c>
       <c r="M192" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196" spans="1:13" s="26" customFormat="1">
       <c r="A196" s="26" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C196" s="26">
         <v>0.92226469570198699</v>
@@ -11037,15 +11095,15 @@
         <v>3.6536150732201303E-2</v>
       </c>
       <c r="M196" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B197" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C197">
         <v>0.95901291727067295</v>
@@ -11078,15 +11136,15 @@
         <v>2.9285003169362701E-2</v>
       </c>
       <c r="M197" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C198">
         <v>0.90385216206117103</v>
@@ -11119,15 +11177,15 @@
         <v>1.51147858678601E-2</v>
       </c>
       <c r="M198" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B199" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C199">
         <v>0.96536975762542498</v>
@@ -11160,15 +11218,15 @@
         <v>2.6673319670048198E-2</v>
       </c>
       <c r="M199" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B200" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C200">
         <v>0.31252669007537498</v>
@@ -11201,15 +11259,15 @@
         <v>3.9370852535747403E-2</v>
       </c>
       <c r="M200" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C201">
         <v>0.20524109253404499</v>
@@ -11242,15 +11300,15 @@
         <v>2.43481226228008E-2</v>
       </c>
       <c r="M201" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C202">
         <v>0.98501541407756499</v>
@@ -11277,15 +11335,15 @@
         <v>0.10329997090745099</v>
       </c>
       <c r="M202" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="205" spans="1:13" s="26" customFormat="1">
       <c r="A205" s="26" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C205" s="15">
         <v>0.68632038674424001</v>
@@ -11318,15 +11376,15 @@
         <v>3.6274701579449502E-2</v>
       </c>
       <c r="M205" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C206">
         <v>0.75089347708389098</v>
@@ -11359,15 +11417,15 @@
         <v>1.44119818568054E-2</v>
       </c>
       <c r="M206" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C207">
         <v>0.64087772622375505</v>
@@ -11400,15 +11458,15 @@
         <v>1.27537419778569E-2</v>
       </c>
       <c r="M207" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B208" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C208">
         <v>0.69583758518560801</v>
@@ -11441,15 +11499,15 @@
         <v>1.6367960823996601E-2</v>
       </c>
       <c r="M208" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C209">
         <v>0.128799334817885</v>
@@ -11482,15 +11540,15 @@
         <v>1.7829077721073599E-2</v>
       </c>
       <c r="M209" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C210">
         <v>0.72649831624618399</v>
@@ -11523,15 +11581,15 @@
         <v>3.2836669601201102E-2</v>
       </c>
       <c r="M210" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B211" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C211">
         <v>0.117622775223115</v>
@@ -11564,15 +11622,15 @@
         <v>1.3454278499942299E-2</v>
       </c>
       <c r="M211" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214" spans="1:13" s="26" customFormat="1">
       <c r="A214" s="26" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C214" s="26">
         <v>0.89156391257408096</v>
@@ -11605,15 +11663,15 @@
         <v>2.3102933414557901E-2</v>
       </c>
       <c r="M214" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="27" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B215" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C215">
         <v>0.94751375819853301</v>
@@ -11646,15 +11704,15 @@
         <v>2.37400211320077E-2</v>
       </c>
       <c r="M215" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="24" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B216" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C216">
         <v>0.74395650144404402</v>
@@ -11687,15 +11745,15 @@
         <v>2.74483437069615E-2</v>
       </c>
       <c r="M216" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="24" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B217" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C217">
         <v>0.33833814705933801</v>
@@ -11728,15 +11786,15 @@
         <v>1.9779522034486598E-2</v>
       </c>
       <c r="M217" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="24" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B218" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C218">
         <v>0.92871369885837396</v>
@@ -11769,15 +11827,15 @@
         <v>1.6640510561124599E-2</v>
       </c>
       <c r="M218" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="24" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B219" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C219">
         <v>0.94180956221446499</v>
@@ -11810,15 +11868,15 @@
         <v>2.93964662318736E-2</v>
       </c>
       <c r="M219" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="24" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B220" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C220">
         <v>0.94125253049468605</v>
@@ -11851,15 +11909,15 @@
         <v>1.91199759442915E-2</v>
       </c>
       <c r="M220" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="223" spans="1:13" s="15" customFormat="1">
       <c r="A223" s="15" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C223" s="15">
         <v>0.74776449203816897</v>
@@ -11892,15 +11950,15 @@
         <v>1.8268080017872501E-2</v>
       </c>
       <c r="M223" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="24" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B224" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C224">
         <v>0.65308704144455498</v>
@@ -11933,15 +11991,15 @@
         <v>2.8062936955867701E-2</v>
       </c>
       <c r="M224" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="24" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B225" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C225">
         <v>0.73432869214927698</v>
@@ -11974,15 +12032,15 @@
         <v>4.5118320545015703E-2</v>
       </c>
       <c r="M225" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="24" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B226" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C226">
         <v>0.55860962178692397</v>
@@ -12015,15 +12073,15 @@
         <v>2.3564997008896301E-2</v>
       </c>
       <c r="M226" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="24" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B227" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C227">
         <v>0.114577142662297</v>
@@ -12056,15 +12114,15 @@
         <v>1.51628849025743E-2</v>
       </c>
       <c r="M227" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="24" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B228" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C228">
         <v>0.67524631371516897</v>
@@ -12097,15 +12155,15 @@
         <v>2.8597698734288801E-2</v>
       </c>
       <c r="M228" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="24" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B229" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C229">
         <v>7.6204443735356606E-2</v>
@@ -12138,15 +12196,15 @@
         <v>1.0810139659873701E-2</v>
       </c>
       <c r="M229" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232" spans="1:13" s="15" customFormat="1">
       <c r="A232" s="15" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C232" s="15">
         <v>0.72134146341463401</v>
@@ -12179,15 +12237,15 @@
         <v>2.6490957820292399E-2</v>
       </c>
       <c r="M232" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="24" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B233" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C233">
         <v>0.64237804878048799</v>
@@ -12220,15 +12278,15 @@
         <v>4.6736797148492798E-2</v>
       </c>
       <c r="M233" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="24" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B234" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C234">
         <v>0.36097560975609799</v>
@@ -12261,15 +12319,15 @@
         <v>4.5893435938261E-2</v>
       </c>
       <c r="M234" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="24" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B235" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C235">
         <v>0.25975609756097601</v>
@@ -12302,15 +12360,15 @@
         <v>4.4884782482928903E-2</v>
       </c>
       <c r="M235" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="24" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B236" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C236">
         <v>0.64817073170731698</v>
@@ -12343,15 +12401,15 @@
         <v>2.81565690368854E-2</v>
       </c>
       <c r="M236" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="24" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B237" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C237">
         <v>0.58993902439024404</v>
@@ -12384,15 +12442,15 @@
         <v>1.6535915956227502E-2</v>
       </c>
       <c r="M237" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="24" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B238" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C238">
         <v>0.74024390243902405</v>
@@ -12425,15 +12483,15 @@
         <v>3.74494781922887E-2</v>
       </c>
       <c r="M238" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="240" spans="1:13" s="24" customFormat="1" ht="17.25" thickBot="1">
       <c r="A240" s="24" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B240" s="24" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C240" s="28">
         <v>0.57540599999999997</v>
@@ -12453,10 +12511,10 @@
     </row>
     <row r="241" spans="1:16" s="24" customFormat="1">
       <c r="A241" s="24" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B241" s="24" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C241" s="24">
         <v>0.80974480000000004</v>
@@ -12476,10 +12534,10 @@
     </row>
     <row r="242" spans="1:16" ht="17.25" thickBot="1">
       <c r="A242" s="24" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B242" s="24" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C242" s="28">
         <v>0.69489559999999995</v>
@@ -12499,10 +12557,10 @@
     </row>
     <row r="243" spans="1:16" ht="17.25" thickBot="1">
       <c r="A243" s="24" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B243" s="24" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C243" s="28">
         <v>0.51276100000000002</v>
@@ -12522,10 +12580,10 @@
     </row>
     <row r="246" spans="1:16">
       <c r="A246" s="24" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B246" s="24" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C246" s="16">
         <v>0.33639999999999998</v>
@@ -12545,10 +12603,10 @@
     </row>
     <row r="247" spans="1:16" ht="17.25" thickBot="1">
       <c r="A247" s="24" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B247" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C247" s="31">
         <v>0.70362290000000005</v>
@@ -12568,10 +12626,10 @@
     </row>
     <row r="248" spans="1:16" ht="17.25" thickBot="1">
       <c r="A248" s="24" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C248" s="28">
         <v>0.69607490000000005</v>
@@ -12591,10 +12649,10 @@
     </row>
     <row r="249" spans="1:16" ht="17.25" thickBot="1">
       <c r="A249" s="24" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B249" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C249" s="28">
         <v>0.70652720000000002</v>
@@ -12614,10 +12672,10 @@
     </row>
     <row r="250" spans="1:16" ht="17.25" thickBot="1">
       <c r="A250" s="24" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B250" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C250" s="28">
         <v>0.75993489999999997</v>
@@ -12637,10 +12695,10 @@
     </row>
     <row r="251" spans="1:16" ht="17.25" thickBot="1">
       <c r="A251" s="24" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B251" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C251" s="28">
         <v>0.72655429999999999</v>
@@ -12660,10 +12718,10 @@
     </row>
     <row r="252" spans="1:16" ht="17.25" thickBot="1">
       <c r="A252" s="24" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B252" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C252" s="28">
         <v>0.74542629999999999</v>
@@ -12683,10 +12741,10 @@
     </row>
     <row r="253" spans="1:16" ht="17.25" thickBot="1">
       <c r="A253" s="24" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C253" s="28">
         <v>0.69606239999999997</v>
@@ -12706,10 +12764,10 @@
     </row>
     <row r="254" spans="1:16" ht="17.25" thickBot="1">
       <c r="A254" s="24" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C254" s="28">
         <v>0.69099520000000003</v>
@@ -12734,10 +12792,10 @@
     </row>
     <row r="255" spans="1:16" ht="17.25" thickBot="1">
       <c r="A255" s="24" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B255" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C255" s="28">
         <v>0.68535880000000005</v>
@@ -12763,10 +12821,10 @@
     </row>
     <row r="256" spans="1:16" ht="17.25" thickBot="1">
       <c r="A256" s="24" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B256" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C256" s="28">
         <v>0.70471720000000004</v>
@@ -12792,10 +12850,10 @@
     </row>
     <row r="257" spans="1:16" ht="17.25" thickBot="1">
       <c r="A257" s="24" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C257" s="28">
         <v>0.70577350000000005</v>
@@ -12828,6 +12886,27 @@
       <c r="P258" s="28"/>
     </row>
     <row r="259" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A259" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B259" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C259" s="28">
+        <v>0.80363180000000001</v>
+      </c>
+      <c r="D259" s="29">
+        <v>0.29488809999999999</v>
+      </c>
+      <c r="E259" s="28">
+        <v>0.13351180000000001</v>
+      </c>
+      <c r="F259" s="29">
+        <v>0.181057</v>
+      </c>
+      <c r="G259" s="28">
+        <v>0.69058549999999996</v>
+      </c>
       <c r="K259" s="35"/>
       <c r="L259" s="29"/>
       <c r="M259" s="29"/>
@@ -12855,7 +12934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -12866,634 +12945,634 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
         <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
         <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>79</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
         <v>81</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
         <v>83</v>
-      </c>
-      <c r="B30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
         <v>85</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
         <v>87</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
         <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
         <v>91</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
         <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
         <v>95</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
         <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
         <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
         <v>101</v>
-      </c>
-      <c r="B39" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
         <v>103</v>
-      </c>
-      <c r="B40" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
         <v>105</v>
-      </c>
-      <c r="B41" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
-      </c>
-      <c r="B42" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
         <v>109</v>
-      </c>
-      <c r="B43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
         <v>111</v>
-      </c>
-      <c r="B44" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
         <v>113</v>
-      </c>
-      <c r="B45" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
         <v>115</v>
-      </c>
-      <c r="B46" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
         <v>121</v>
-      </c>
-      <c r="B49" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" t="s">
         <v>123</v>
-      </c>
-      <c r="B50" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
         <v>125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
         <v>129</v>
-      </c>
-      <c r="B53" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
         <v>131</v>
-      </c>
-      <c r="B54" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
         <v>133</v>
-      </c>
-      <c r="B55" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
         <v>135</v>
-      </c>
-      <c r="B56" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
         <v>137</v>
-      </c>
-      <c r="B57" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
         <v>139</v>
-      </c>
-      <c r="B58" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
         <v>143</v>
-      </c>
-      <c r="B60" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
         <v>145</v>
-      </c>
-      <c r="B61" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" t="s">
         <v>147</v>
-      </c>
-      <c r="B62" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
         <v>149</v>
-      </c>
-      <c r="B63" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
         <v>151</v>
-      </c>
-      <c r="B64" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
         <v>153</v>
-      </c>
-      <c r="B65" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" t="s">
         <v>155</v>
-      </c>
-      <c r="B66" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" t="s">
         <v>157</v>
-      </c>
-      <c r="B67" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
         <v>159</v>
-      </c>
-      <c r="B68" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" t="s">
         <v>163</v>
-      </c>
-      <c r="B70" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
         <v>165</v>
-      </c>
-      <c r="B71" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" t="s">
         <v>167</v>
-      </c>
-      <c r="B72" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
         <v>169</v>
-      </c>
-      <c r="B73" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" t="s">
         <v>171</v>
-      </c>
-      <c r="B74" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" t="s">
         <v>173</v>
-      </c>
-      <c r="B75" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" t="s">
         <v>175</v>
-      </c>
-      <c r="B76" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -13517,77 +13596,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" thickBot="1">
       <c r="A2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" thickBot="1">
       <c r="A3" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" thickBot="1">
       <c r="A4" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" thickBot="1">
       <c r="A5" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" thickBot="1">
       <c r="A6" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" thickBot="1">
       <c r="A7" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" thickBot="1">
       <c r="A8" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" thickBot="1">
       <c r="A9" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" thickBot="1">
       <c r="A10" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" thickBot="1">
       <c r="A11" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" thickBot="1">
       <c r="A12" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" thickBot="1">
       <c r="A14" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
